--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/Documents/GitHub/finance-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CB2266B-E43F-EC4B-9DA5-9777543C71F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C1800618-9415-B245-8D2D-382B53FB1D11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="63440" windowHeight="30360" xr2:uid="{6125BCB1-7DDC-4E47-95AD-042A0A9DD922}"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="63440" windowHeight="30360" activeTab="2" xr2:uid="{6125BCB1-7DDC-4E47-95AD-042A0A9DD922}"/>
   </bookViews>
   <sheets>
     <sheet name="投资咨询" sheetId="7" r:id="rId1"/>
     <sheet name="估值计算" sheetId="8" r:id="rId2"/>
+    <sheet name="估值定投计算" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="94">
   <si>
     <t>标普500</t>
     <rPh sb="0" eb="2">
@@ -489,6 +490,67 @@
     <t>无形资产</t>
     <rPh sb="0" eb="2">
       <t>wu'xing'zi'cha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="2">
+      <t>ri'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <rPh sb="0" eb="2">
+      <t>hu'she</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳斯达克100</t>
+    <rPh sb="0" eb="2">
+      <t>na'si'da'k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月定投，至2018-07复合收益率</t>
+    <rPh sb="0" eb="221">
+      <t>mei'yu</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>zhi'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月定投，3年复合收益率</t>
+    <rPh sb="0" eb="236">
+      <t>mei'yu</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>zhi'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月定投，5年复合收益率</t>
+    <rPh sb="0" eb="247">
+      <t>mei'yu</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>zhi'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月定投，10年复合收益率</t>
+    <rPh sb="0" eb="260">
+      <t>mei'yu</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>zhi'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -497,11 +559,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="yyyy&quot;-&quot;mm;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -707,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,7 +816,7 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -762,7 +825,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -786,6 +849,48 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,12 +898,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -819,47 +918,17 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1411,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCF1364-C6CB-CF4A-942C-652D8EA963F1}">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -1423,7 +1492,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -1460,7 +1529,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
-      <c r="A2" s="27"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="17"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1491,7 +1560,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="27"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1522,31 +1591,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="24" thickBot="1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="31">
         <f>(E3/E2)^(1/((D3-D2)/365))-1</f>
         <v>2.7741576196196327E-3</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29">
+      <c r="E4" s="32"/>
+      <c r="F4" s="31">
         <f>(G3/G2)^(1/((F3-F2)/365))-1</f>
         <v>3.4391511757527748E-3</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="29">
+      <c r="G4" s="32"/>
+      <c r="H4" s="31">
         <f>(I3/I2)^(1/((H3-H2)/365))-1</f>
         <v>2.5787295647958786E-3</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29">
+      <c r="I4" s="32"/>
+      <c r="J4" s="31">
         <f>(K3/K2)^(1/((J3-J2)/365))-1</f>
         <v>1.0995052226498103E-2</v>
       </c>
-      <c r="K4" s="30"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:13" ht="23">
       <c r="A5" s="13"/>
@@ -1556,7 +1625,7 @@
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1593,7 +1662,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18">
-      <c r="A7" s="27"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -1624,7 +1693,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="27"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -1655,31 +1724,31 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24" thickBot="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="31">
         <f>(E8/E7)^(1/((D8-D7)/365))-1</f>
         <v>4.0846120295237043E-3</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29">
+      <c r="E9" s="32"/>
+      <c r="F9" s="31">
         <f>(G8/G7)^(1/((F8-F7)/365))-1</f>
         <v>4.4756377204877573E-3</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29">
+      <c r="G9" s="32"/>
+      <c r="H9" s="31">
         <f>(I8/I7)^(1/((H8-H7)/365))-1</f>
         <v>2.9782798360282747E-3</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29">
+      <c r="I9" s="32"/>
+      <c r="J9" s="31">
         <f>(K8/K7)^(1/((J8-J7)/365))-1</f>
         <v>-2.5164769322948422E-3</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="23">
       <c r="A10" s="9"/>
@@ -1689,7 +1758,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="18">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1726,7 +1795,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
-      <c r="A12" s="27"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -1757,7 +1826,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="23" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -1788,31 +1857,31 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" thickBot="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="31">
         <f>(E13/E12)^(1/((D13-D12)/365))-1</f>
         <v>2.3944888149245003E-2</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="29">
+      <c r="E14" s="32"/>
+      <c r="F14" s="31">
         <f>(G13/G12)^(1/((F13-F12)/365))-1</f>
         <v>9.141159352500372E-3</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29">
+      <c r="G14" s="32"/>
+      <c r="H14" s="31">
         <f>(I13/I12)^(1/((H13-H12)/365))-1</f>
         <v>6.6946593445611491E-3</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29">
+      <c r="I14" s="32"/>
+      <c r="J14" s="31">
         <f>(K13/K12)^(1/((J13-J12)/365))-1</f>
         <v>-2.0896500860444145E-2</v>
       </c>
-      <c r="K14" s="30"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="23">
       <c r="A15" s="9"/>
@@ -1822,7 +1891,7 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="18">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1866,7 +1935,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="18">
-      <c r="A17" s="27"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
         <v>3</v>
@@ -1903,7 +1972,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="27"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -1940,36 +2009,36 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="23" customHeight="1" thickBot="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="31">
         <f>(E18/E17)^(1/((D18-D17)/365))-1</f>
         <v>2.3376576781710012E-2</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29">
+      <c r="E19" s="32"/>
+      <c r="F19" s="31">
         <f>(G18/G17)^(1/((F18-F17)/365))-1</f>
         <v>3.0087312837759006E-2</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="29">
+      <c r="G19" s="32"/>
+      <c r="H19" s="31">
         <f>(I18/I17)^(1/((H18-H17)/365))-1</f>
         <v>1.5148650279172449E-2</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29">
+      <c r="I19" s="32"/>
+      <c r="J19" s="31">
         <f>(K18/K17)^(1/((J18-J17)/365))-1</f>
         <v>8.252461098143149E-3</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="29">
+      <c r="K19" s="32"/>
+      <c r="L19" s="31">
         <f>(M18/M17)^(1/((L18-L17)/365))-1</f>
         <v>-3.5883355425108898E-2</v>
       </c>
-      <c r="M19" s="30"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="23">
       <c r="A20" s="9"/>
@@ -1979,10 +2048,10 @@
       <c r="E20" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="18">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="8"/>
@@ -2009,8 +2078,8 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2034,8 +2103,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="23" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2059,29 +2128,29 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="24" thickBot="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="31">
         <f>(E24/E23)^(1/((D24-D23)/365))-1</f>
         <v>1.5531322506834089E-2</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29">
+      <c r="E25" s="32"/>
+      <c r="F25" s="31">
         <f>(G24/G23)^(1/((F24-F23)/365))-1</f>
         <v>1.7143739028393723E-2</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="29">
+      <c r="G25" s="32"/>
+      <c r="H25" s="31">
         <f>(I24/I23)^(1/((H24-H23)/365))-1</f>
         <v>2.093070514123152E-2</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="18">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="10"/>
@@ -2109,7 +2178,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="27"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>3</v>
@@ -2134,7 +2203,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="27"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -2159,32 +2228,32 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="24" thickBot="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="31">
         <f>(E29/E28)^(1/((D29-D28)/365))-1</f>
         <v>5.7715015246848633E-3</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29">
+      <c r="E30" s="32"/>
+      <c r="F30" s="31">
         <f>(G29/G28)^(1/((F29-F28)/365))-1</f>
         <v>3.4198262292839399E-3</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="29">
+      <c r="G30" s="32"/>
+      <c r="H30" s="31">
         <f>(I29/I28)^(1/((H29-H28)/365))-1</f>
         <v>-2.1688355021687311E-3</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="18">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="43" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="8"/>
@@ -2218,8 +2287,8 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="27"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2318,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="23" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,37 +2349,37 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="24" thickBot="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="31">
         <f>(E34/E33)^(1/((D34-D33)/365))-1</f>
         <v>3.7860182208745652E-2</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29">
+      <c r="E35" s="32"/>
+      <c r="F35" s="31">
         <f>(G34/G33)^(1/((F34-F33)/365))-1</f>
         <v>3.2913827842230736E-2</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="29">
+      <c r="G35" s="32"/>
+      <c r="H35" s="31">
         <f>(I34/I33)^(1/((H34-H33)/365))-1</f>
         <v>1.5791186172652516E-2</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29">
+      <c r="I35" s="32"/>
+      <c r="J35" s="31">
         <f>(K34/K33)^(1/((J34-J33)/365))-1</f>
         <v>1.7035775127768105E-2</v>
       </c>
-      <c r="K35" s="30"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="43" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="8"/>
@@ -2330,8 +2399,8 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="27"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
@@ -2349,8 +2418,8 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="27"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2368,24 +2437,24 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="24" thickBot="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="31">
         <f>(E39/E38)^(1/((D39-D38)/365))-1</f>
         <v>1.3724234186924145E-2</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="29">
+      <c r="E40" s="32"/>
+      <c r="F40" s="31">
         <f>(G39/G38)^(1/((F39-F38)/365))-1</f>
         <v>1.5602836879432536E-2</v>
       </c>
-      <c r="G40" s="30"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="42" spans="1:13" ht="18">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -2429,7 +2498,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="35"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
         <v>3</v>
@@ -2466,7 +2535,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="35"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
         <v>4</v>
@@ -2503,39 +2572,39 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="24" thickBot="1">
-      <c r="A45" s="36"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="31">
         <f>(E44/E43)^(1/((D44-D43)/365))-1</f>
         <v>0.11211710931213292</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="37">
+      <c r="E45" s="32"/>
+      <c r="F45" s="39">
         <f>(G44/G43)^(1/((F44-F43)/365))-1</f>
         <v>8.0521701551103719E-2</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="37">
+      <c r="G45" s="32"/>
+      <c r="H45" s="39">
         <f>(I44/I43)^(1/((H44-H43)/365))-1</f>
         <v>4.2352168232818066E-2</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="37">
+      <c r="I45" s="32"/>
+      <c r="J45" s="39">
         <f>(K44/K43)^(1/((J44-J43)/365))-1</f>
         <v>3.4162011121695368E-2</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="37">
+      <c r="K45" s="32"/>
+      <c r="L45" s="39">
         <f>(M44/M43)^(1/((L44-L43)/365))-1</f>
         <v>-2.114164904862581E-2</v>
       </c>
-      <c r="M45" s="30"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="47" spans="1:13" ht="18">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -2579,7 +2648,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="27"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
@@ -2618,7 +2687,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="27"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
         <v>4</v>
@@ -2655,39 +2724,39 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="24" thickBot="1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="31">
         <f>(E49/E48)^(1/((D49-D48)/365))-1</f>
         <v>0.11163632544516733</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="29">
+      <c r="E50" s="32"/>
+      <c r="F50" s="31">
         <f>(G49/G48)^(1/((F49-F48)/365))-1</f>
         <v>7.298220911292197E-2</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="29">
+      <c r="G50" s="32"/>
+      <c r="H50" s="31">
         <f>(I49/I48)^(1/((H49-H48)/365))-1</f>
         <v>3.3610755605151477E-2</v>
       </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="29">
+      <c r="I50" s="32"/>
+      <c r="J50" s="31">
         <f>(K49/K48)^(1/((J49-J48)/365))-1</f>
         <v>3.1391374117271331E-2</v>
       </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="29">
+      <c r="K50" s="32"/>
+      <c r="L50" s="31">
         <f>(M49/M48)^(1/((L49-L48)/365))-1</f>
         <v>-2.2159479808350313E-2</v>
       </c>
-      <c r="M50" s="30"/>
+      <c r="M50" s="32"/>
     </row>
     <row r="52" spans="1:15" ht="18">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -2738,7 +2807,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="39"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
@@ -2783,7 +2852,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="39"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
         <v>4</v>
@@ -2826,44 +2895,44 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="24" thickBot="1">
-      <c r="A55" s="40"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="31">
         <f>(E54/E53)^(1/((D54-D53)/365))-1</f>
         <v>8.1821576127553586E-2</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="29">
+      <c r="E55" s="32"/>
+      <c r="F55" s="31">
         <f>(G54/G53)^(1/((F54-F53)/365))-1</f>
         <v>0.11397659798315796</v>
       </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="29">
+      <c r="G55" s="32"/>
+      <c r="H55" s="31">
         <f>(I54/I53)^(1/((H54-H53)/365))-1</f>
         <v>0.10698717922181467</v>
       </c>
-      <c r="I55" s="30"/>
-      <c r="J55" s="29">
+      <c r="I55" s="32"/>
+      <c r="J55" s="31">
         <f>(K54/K53)^(1/((J54-J53)/365))-1</f>
         <v>0.14485844453802121</v>
       </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="29">
+      <c r="K55" s="32"/>
+      <c r="L55" s="31">
         <f>(M54/M53)^(1/((L54-L53)/365))-1</f>
         <v>0.12583780760091456</v>
       </c>
-      <c r="M55" s="30"/>
-      <c r="N55" s="29">
+      <c r="M55" s="32"/>
+      <c r="N55" s="31">
         <f>(O54/O53)^(1/((N54-N53)/365))-1</f>
         <v>0.16607758983421705</v>
       </c>
-      <c r="O55" s="30"/>
+      <c r="O55" s="32"/>
     </row>
     <row r="57" spans="1:15" ht="18">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -2914,7 +2983,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="39"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="1" t="s">
         <v>27</v>
       </c>
@@ -2959,7 +3028,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="39"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>4</v>
@@ -3002,44 +3071,44 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="24" thickBot="1">
-      <c r="A60" s="40"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="31">
         <f>(E59/E58)^(1/((D59-D58)/365))-1</f>
         <v>6.4365565839712202E-2</v>
       </c>
-      <c r="E60" s="30"/>
-      <c r="F60" s="29">
+      <c r="E60" s="32"/>
+      <c r="F60" s="31">
         <f>(G59/G58)^(1/((F59-F58)/365))-1</f>
         <v>0.11538971873685577</v>
       </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="29">
+      <c r="G60" s="32"/>
+      <c r="H60" s="31">
         <f>(I59/I58)^(1/((H59-H58)/365))-1</f>
         <v>0.10580236953644406</v>
       </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="29">
+      <c r="I60" s="32"/>
+      <c r="J60" s="31">
         <f>(K59/K58)^(1/((J59-J58)/365))-1</f>
         <v>0.14677875420227515</v>
       </c>
-      <c r="K60" s="30"/>
-      <c r="L60" s="29">
+      <c r="K60" s="32"/>
+      <c r="L60" s="31">
         <f>(M59/M58)^(1/((L59-L58)/365))-1</f>
         <v>0.12571889814124648</v>
       </c>
-      <c r="M60" s="30"/>
-      <c r="N60" s="29">
+      <c r="M60" s="32"/>
+      <c r="N60" s="31">
         <f>(O59/O58)^(1/((N59-N58)/365))-1</f>
         <v>0.16562707917498343</v>
       </c>
-      <c r="O60" s="30"/>
+      <c r="O60" s="32"/>
     </row>
     <row r="62" spans="1:15" ht="18">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -3076,7 +3145,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="39"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="1" t="s">
         <v>29</v>
       </c>
@@ -3109,7 +3178,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="39"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
         <v>4</v>
@@ -3140,34 +3209,34 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="24" thickBot="1">
-      <c r="A65" s="40"/>
+      <c r="A65" s="35"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D65" s="31">
         <f>(E64/E63)^(1/((D64-D63)/365))-1</f>
         <v>0.18938043875777533</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="29">
+      <c r="E65" s="32"/>
+      <c r="F65" s="31">
         <f>(G64/G63)^(1/((F64-F63)/365))-1</f>
         <v>0.21722869053684035</v>
       </c>
-      <c r="G65" s="30"/>
-      <c r="H65" s="29">
+      <c r="G65" s="32"/>
+      <c r="H65" s="31">
         <f>(I64/I63)^(1/((H64-H63)/365))-1</f>
         <v>0.19171397721545813</v>
       </c>
-      <c r="I65" s="30"/>
-      <c r="J65" s="29">
+      <c r="I65" s="32"/>
+      <c r="J65" s="31">
         <f>(K64/K63)^(1/((J64-J63)/365))-1</f>
         <v>0.28404556337517217</v>
       </c>
-      <c r="K65" s="30"/>
+      <c r="K65" s="32"/>
     </row>
     <row r="67" spans="1:13" ht="18">
-      <c r="A67" s="41">
+      <c r="A67" s="36">
         <v>50002</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -3211,7 +3280,7 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="42"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
         <v>3</v>
@@ -3248,7 +3317,7 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="42"/>
+      <c r="A69" s="37"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -3285,39 +3354,39 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="24" thickBot="1">
-      <c r="A70" s="43"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="29">
+      <c r="D70" s="31">
         <f>(E69/E68)^(1/((D69-D68)/365))-1</f>
         <v>8.8851511738710309E-2</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="29">
+      <c r="E70" s="32"/>
+      <c r="F70" s="31">
         <f>(G69/G68)^(1/((F69-F68)/365))-1</f>
         <v>1.9900138901991937E-2</v>
       </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="29">
+      <c r="G70" s="32"/>
+      <c r="H70" s="31">
         <f>(I69/I68)^(1/((H69-H68)/365))-1</f>
         <v>5.1680000301096873E-2</v>
       </c>
-      <c r="I70" s="30"/>
-      <c r="J70" s="29">
+      <c r="I70" s="32"/>
+      <c r="J70" s="31">
         <f>(K69/K68)^(1/((J69-J68)/365))-1</f>
         <v>-9.5260379684403151E-3</v>
       </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="29">
+      <c r="K70" s="32"/>
+      <c r="L70" s="31">
         <f>(M69/M68)^(1/((L69-L68)/365))-1</f>
         <v>4.0644295807592767E-2</v>
       </c>
-      <c r="M70" s="30"/>
+      <c r="M70" s="32"/>
     </row>
     <row r="72" spans="1:13" ht="18">
-      <c r="A72" s="38">
+      <c r="A72" s="33">
         <v>513500</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -3347,7 +3416,7 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="39"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -3372,7 +3441,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="39"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
         <v>4</v>
@@ -3397,29 +3466,29 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="24" thickBot="1">
-      <c r="A75" s="40"/>
+      <c r="A75" s="35"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="31">
         <f>(E74/E73)^(1/((D74-D73)/365))-1</f>
         <v>0.11760462425022467</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="29">
+      <c r="E75" s="32"/>
+      <c r="F75" s="31">
         <f>(G74/G73)^(1/((F74-F73)/365))-1</f>
         <v>0.12231415080073815</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="29">
+      <c r="G75" s="32"/>
+      <c r="H75" s="31">
         <f>(I74/I73)^(1/((H74-H73)/365))-1</f>
         <v>7.7833977110505215E-2</v>
       </c>
-      <c r="I75" s="30"/>
+      <c r="I75" s="32"/>
     </row>
     <row r="77" spans="1:13" ht="18">
-      <c r="A77" s="38">
+      <c r="A77" s="33">
         <v>513100</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -3449,7 +3518,7 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="39"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
         <v>3</v>
@@ -3474,7 +3543,7 @@
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="39"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3" t="s">
         <v>4</v>
@@ -3499,29 +3568,29 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="24" thickBot="1">
-      <c r="A80" s="40"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="31">
         <f>(E79/E78)^(1/((D79-D78)/365))-1</f>
         <v>0.19018302552113719</v>
       </c>
-      <c r="E80" s="30"/>
-      <c r="F80" s="29">
+      <c r="E80" s="32"/>
+      <c r="F80" s="31">
         <f>(G79/G78)^(1/((F79-F78)/365))-1</f>
         <v>0.19111895483297237</v>
       </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="29">
+      <c r="G80" s="32"/>
+      <c r="H80" s="31">
         <f>(I79/I78)^(1/((H79-H78)/365))-1</f>
         <v>0.19540747574311768</v>
       </c>
-      <c r="I80" s="30"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="82" spans="1:13" ht="18">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3565,7 +3634,7 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="45"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3673,7 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="45"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
         <v>4</v>
@@ -3641,39 +3710,39 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="24" thickBot="1">
-      <c r="A85" s="46"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="31">
         <f>(E84/E83)^(1/((D84-D83)/365))-1</f>
         <v>0.59628979168389762</v>
       </c>
-      <c r="E85" s="30"/>
-      <c r="F85" s="29">
+      <c r="E85" s="32"/>
+      <c r="F85" s="31">
         <f>(G84/G83)^(1/((F84-F83)/365))-1</f>
         <v>0.29828623507555485</v>
       </c>
-      <c r="G85" s="30"/>
-      <c r="H85" s="29">
+      <c r="G85" s="32"/>
+      <c r="H85" s="31">
         <f>(I84/I83)^(1/((H84-H83)/365))-1</f>
         <v>0.30685078848236658</v>
       </c>
-      <c r="I85" s="30"/>
-      <c r="J85" s="29">
+      <c r="I85" s="32"/>
+      <c r="J85" s="31">
         <f>(K84/K83)^(1/((J84-J83)/365))-1</f>
         <v>0.16354379707987698</v>
       </c>
-      <c r="K85" s="30"/>
-      <c r="L85" s="29">
+      <c r="K85" s="32"/>
+      <c r="L85" s="31">
         <f>(M84/M83)^(1/((L84-L83)/365))-1</f>
         <v>0.33295687160302134</v>
       </c>
-      <c r="M85" s="30"/>
+      <c r="M85" s="32"/>
     </row>
     <row r="87" spans="1:13" ht="18">
-      <c r="A87" s="44" t="s">
+      <c r="A87" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -3717,7 +3786,7 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="45"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="1" t="s">
         <v>2</v>
       </c>
@@ -3756,7 +3825,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="45"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -3793,39 +3862,39 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="24" thickBot="1">
-      <c r="A90" s="46"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="31">
         <f>(E89/E88)^(1/((D89-D88)/365))-1</f>
         <v>0.15500268875045298</v>
       </c>
-      <c r="E90" s="30"/>
-      <c r="F90" s="29">
+      <c r="E90" s="32"/>
+      <c r="F90" s="31">
         <f>(G89/G88)^(1/((F89-F88)/365))-1</f>
         <v>0.15046173074692559</v>
       </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="29">
+      <c r="G90" s="32"/>
+      <c r="H90" s="31">
         <f>(I89/I88)^(1/((H89-H88)/365))-1</f>
         <v>0.21433998564767487</v>
       </c>
-      <c r="I90" s="30"/>
-      <c r="J90" s="29">
+      <c r="I90" s="32"/>
+      <c r="J90" s="31">
         <f>(K89/K88)^(1/((J89-J88)/365))-1</f>
         <v>0.29744338957285077</v>
       </c>
-      <c r="K90" s="30"/>
-      <c r="L90" s="29">
+      <c r="K90" s="32"/>
+      <c r="L90" s="31">
         <f>(M89/M88)^(1/((L89-L88)/365))-1</f>
         <v>0.22280353599134051</v>
       </c>
-      <c r="M90" s="30"/>
+      <c r="M90" s="32"/>
     </row>
     <row r="92" spans="1:13" ht="18">
-      <c r="A92" s="44" t="s">
+      <c r="A92" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -3862,7 +3931,7 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="45"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="1"/>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -3893,7 +3962,7 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="45"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
         <v>4</v>
@@ -3924,34 +3993,34 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="24" thickBot="1">
-      <c r="A95" s="46"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="31">
         <f>(E94/E93)^(1/((D94-D93)/365))-1</f>
         <v>0.30830128409489843</v>
       </c>
-      <c r="E95" s="30"/>
-      <c r="F95" s="29">
+      <c r="E95" s="32"/>
+      <c r="F95" s="31">
         <f>(G94/G93)^(1/((F94-F93)/365))-1</f>
         <v>0.52577637120142962</v>
       </c>
-      <c r="G95" s="30"/>
-      <c r="H95" s="29">
+      <c r="G95" s="32"/>
+      <c r="H95" s="31">
         <f>(I94/I93)^(1/((H94-H93)/365))-1</f>
         <v>0.34342982251516263</v>
       </c>
-      <c r="I95" s="30"/>
-      <c r="J95" s="29">
+      <c r="I95" s="32"/>
+      <c r="J95" s="31">
         <f>(K94/K93)^(1/((J94-J93)/365))-1</f>
         <v>0.30740987983978618</v>
       </c>
-      <c r="K95" s="30"/>
+      <c r="K95" s="32"/>
     </row>
     <row r="97" spans="1:13" ht="18">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -3981,7 +4050,7 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="45"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -4006,7 +4075,7 @@
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="45"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -4031,29 +4100,29 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="24" thickBot="1">
-      <c r="A100" s="46"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="29">
+      <c r="D100" s="31">
         <f>(E99/E98)^(1/((D99-D98)/365))-1</f>
         <v>0.23700504663239474</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="29">
+      <c r="E100" s="32"/>
+      <c r="F100" s="31">
         <f>(G99/G98)^(1/((F99-F98)/365))-1</f>
         <v>0.34133307224348353</v>
       </c>
-      <c r="G100" s="30"/>
-      <c r="H100" s="29">
+      <c r="G100" s="32"/>
+      <c r="H100" s="31">
         <f>(I99/I98)^(1/((H99-H98)/365))-1</f>
         <v>0.53982824992596967</v>
       </c>
-      <c r="I100" s="30"/>
+      <c r="I100" s="32"/>
     </row>
     <row r="102" spans="1:13" ht="18">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -4097,7 +4166,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="45"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
         <v>3</v>
@@ -4134,7 +4203,7 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="45"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3" t="s">
         <v>4</v>
@@ -4171,39 +4240,39 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="24" thickBot="1">
-      <c r="A105" s="46"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="31">
         <f>(E104/E103)^(1/((D104-D103)/365))-1</f>
         <v>0.40165530607432598</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="29">
+      <c r="E105" s="32"/>
+      <c r="F105" s="31">
         <f>(G104/G103)^(1/((F104-F103)/365))-1</f>
         <v>0.35381356105242645</v>
       </c>
-      <c r="G105" s="30"/>
-      <c r="H105" s="29">
+      <c r="G105" s="32"/>
+      <c r="H105" s="31">
         <f>(I104/I103)^(1/((H104-H103)/365))-1</f>
         <v>0.44271501348530085</v>
       </c>
-      <c r="I105" s="30"/>
-      <c r="J105" s="29">
+      <c r="I105" s="32"/>
+      <c r="J105" s="31">
         <f>(K104/K103)^(1/((J104-J103)/365))-1</f>
         <v>0.59334284842839025</v>
       </c>
-      <c r="K105" s="30"/>
-      <c r="L105" s="29">
+      <c r="K105" s="32"/>
+      <c r="L105" s="31">
         <f>(M104/M103)^(1/((L104-L103)/365))-1</f>
         <v>0.7797380130060052</v>
       </c>
-      <c r="M105" s="30"/>
+      <c r="M105" s="32"/>
     </row>
     <row r="107" spans="1:13" ht="18">
-      <c r="A107" s="44">
+      <c r="A107" s="28">
         <v>700</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -4240,7 +4309,7 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="45"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="1" t="s">
         <v>44</v>
       </c>
@@ -4273,7 +4342,7 @@
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="45"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3" t="s">
         <v>4</v>
@@ -4304,34 +4373,34 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="24" thickBot="1">
-      <c r="A110" s="46"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="31">
         <f>(E109/E108)^(1/((D109-D108)/365))-1</f>
         <v>0.4738181333406295</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="29">
+      <c r="E110" s="32"/>
+      <c r="F110" s="31">
         <f>(G109/G108)^(1/((F109-F108)/365))-1</f>
         <v>0.48500731443762635</v>
       </c>
-      <c r="G110" s="30"/>
-      <c r="H110" s="29">
+      <c r="G110" s="32"/>
+      <c r="H110" s="31">
         <f>(I109/I108)^(1/((H109-H108)/365))-1</f>
         <v>0.38784376850528601</v>
       </c>
-      <c r="I110" s="30"/>
-      <c r="J110" s="29">
+      <c r="I110" s="32"/>
+      <c r="J110" s="31">
         <f>(K109/K108)^(1/((J109-J108)/365))-1</f>
         <v>0.50668822578274297</v>
       </c>
-      <c r="K110" s="30"/>
+      <c r="K110" s="32"/>
     </row>
     <row r="112" spans="1:13" ht="18">
-      <c r="A112" s="44" t="s">
+      <c r="A112" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -4375,7 +4444,7 @@
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="45"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4414,7 +4483,7 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="45"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3" t="s">
         <v>4</v>
@@ -4451,139 +4520,39 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="24" thickBot="1">
-      <c r="A115" s="46"/>
+      <c r="A115" s="30"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="31">
         <f>(E114/E113)^(1/((D114-D113)/365))-1</f>
         <v>0.39781814728603404</v>
       </c>
-      <c r="E115" s="30"/>
-      <c r="F115" s="29">
+      <c r="E115" s="32"/>
+      <c r="F115" s="31">
         <f>(G114/G113)^(1/((F114-F113)/365))-1</f>
         <v>0.37041183565309832</v>
       </c>
-      <c r="G115" s="30"/>
-      <c r="H115" s="29">
+      <c r="G115" s="32"/>
+      <c r="H115" s="31">
         <f>(I114/I113)^(1/((H114-H113)/365))-1</f>
         <v>0.38658098669151819</v>
       </c>
-      <c r="I115" s="30"/>
-      <c r="J115" s="29">
+      <c r="I115" s="32"/>
+      <c r="J115" s="31">
         <f>(K114/K113)^(1/((J114-J113)/365))-1</f>
         <v>0.22071828888857414</v>
       </c>
-      <c r="K115" s="30"/>
-      <c r="L115" s="29">
+      <c r="K115" s="32"/>
+      <c r="L115" s="31">
         <f>(M114/M113)^(1/((L114-L113)/365))-1</f>
         <v>-0.12267657992565051</v>
       </c>
-      <c r="M115" s="30"/>
+      <c r="M115" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D4:E4"/>
@@ -4607,6 +4576,106 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4839,50 +4908,50 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="23">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="E15" s="47" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="E15" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47" t="s">
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="R15" s="47" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="R15" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="47" t="s">
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AD15" s="47" t="s">
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AD15" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
@@ -4988,7 +5057,7 @@
       <c r="K17">
         <v>2017</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="26">
         <f>M17-N17-O17</f>
         <v>50803</v>
       </c>
@@ -5039,7 +5108,7 @@
       <c r="K18">
         <v>2016</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="26">
         <f t="shared" ref="L18:L40" si="4">M18-N18-O18</f>
         <v>52276</v>
       </c>
@@ -5059,7 +5128,7 @@
       <c r="R18">
         <v>2017</v>
       </c>
-      <c r="S18" s="48">
+      <c r="S18" s="26">
         <f>T18-U18</f>
         <v>23907</v>
       </c>
@@ -5070,25 +5139,25 @@
         <v>13184</v>
       </c>
       <c r="V18" s="24">
-        <f>(S18-S19)/S19</f>
+        <f t="shared" ref="V18:V32" si="6">(S18-S19)/S19</f>
         <v>-7.4233271375464691E-2</v>
       </c>
       <c r="X18">
         <v>2017</v>
       </c>
-      <c r="Y18" s="48">
+      <c r="Y18" s="26">
         <v>68790</v>
       </c>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
       <c r="AB18" s="24">
-        <f>(Y18-Y19)/Y19</f>
+        <f t="shared" ref="AB18:AB32" si="7">(Y18-Y19)/Y19</f>
         <v>0.34148481834669164</v>
       </c>
       <c r="AD18">
         <v>2017</v>
       </c>
-      <c r="AE18" s="48">
+      <c r="AE18" s="26">
         <f>AF18-AG18-AH18</f>
         <v>74182</v>
       </c>
@@ -5102,7 +5171,7 @@
         <v>19850</v>
       </c>
       <c r="AI18" s="24">
-        <f>(AE18-AE19)/AE19</f>
+        <f t="shared" ref="AI18:AI32" si="8">(AE18-AE19)/AE19</f>
         <v>0.53681375595608039</v>
       </c>
     </row>
@@ -5130,7 +5199,7 @@
       <c r="K19">
         <v>2015</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="26">
         <f t="shared" si="4"/>
         <v>69778</v>
       </c>
@@ -5150,8 +5219,8 @@
       <c r="R19">
         <v>2016</v>
       </c>
-      <c r="S19" s="48">
-        <f t="shared" ref="S19:S41" si="6">T19-U19</f>
+      <c r="S19" s="26">
+        <f t="shared" ref="S19:S41" si="9">T19-U19</f>
         <v>25824</v>
       </c>
       <c r="T19" s="23">
@@ -5161,26 +5230,26 @@
         <v>10212</v>
       </c>
       <c r="V19" s="24">
-        <f>(S19-S20)/S20</f>
+        <f t="shared" si="6"/>
         <v>0.55360365780291176</v>
       </c>
       <c r="X19">
         <v>2016</v>
       </c>
-      <c r="Y19" s="48">
+      <c r="Y19" s="26">
         <v>51279</v>
       </c>
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="24">
-        <f>(Y19-Y20)/Y20</f>
+        <f t="shared" si="7"/>
         <v>6.5626233868789088E-2</v>
       </c>
       <c r="AD19">
         <v>2016</v>
       </c>
-      <c r="AE19" s="48">
-        <f t="shared" ref="AE19:AE41" si="7">AF19-AG19-AH19</f>
+      <c r="AE19" s="26">
+        <f t="shared" ref="AE19:AE41" si="10">AF19-AG19-AH19</f>
         <v>48270</v>
       </c>
       <c r="AF19" s="23">
@@ -5193,7 +5262,7 @@
         <v>8849</v>
       </c>
       <c r="AI19" s="24">
-        <f>(AE19-AE20)/AE20</f>
+        <f t="shared" si="8"/>
         <v>0.3646772779960985</v>
       </c>
     </row>
@@ -5221,7 +5290,7 @@
       <c r="K20">
         <v>2014</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="26">
         <f t="shared" si="4"/>
         <v>49900</v>
       </c>
@@ -5241,8 +5310,8 @@
       <c r="R20">
         <v>2015</v>
       </c>
-      <c r="S20" s="48">
-        <f t="shared" si="6"/>
+      <c r="S20" s="26">
+        <f t="shared" si="9"/>
         <v>16622</v>
       </c>
       <c r="T20" s="23">
@@ -5252,26 +5321,26 @@
         <v>9950</v>
       </c>
       <c r="V20" s="24">
-        <f>(S20-S21)/S21</f>
+        <f t="shared" si="6"/>
         <v>0.45589909783655952</v>
       </c>
       <c r="X20">
         <v>2015</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="26">
         <v>48121</v>
       </c>
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
       <c r="AB20" s="24">
-        <f>(Y20-Y21)/Y21</f>
+        <f t="shared" si="7"/>
         <v>0.49124546778642042</v>
       </c>
       <c r="AD20">
         <v>2015</v>
       </c>
-      <c r="AE20" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE20" s="26">
+        <f t="shared" si="10"/>
         <v>35371</v>
       </c>
       <c r="AF20" s="23">
@@ -5284,7 +5353,7 @@
         <v>4620</v>
       </c>
       <c r="AI20" s="24">
-        <f>(AE20-AE21)/AE21</f>
+        <f t="shared" si="8"/>
         <v>0.35547039662770646</v>
       </c>
     </row>
@@ -5312,7 +5381,7 @@
       <c r="K21">
         <v>2013</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="26">
         <f t="shared" si="4"/>
         <v>44590</v>
       </c>
@@ -5332,8 +5401,8 @@
       <c r="R21">
         <v>2014</v>
       </c>
-      <c r="S21" s="48">
-        <f t="shared" si="6"/>
+      <c r="S21" s="26">
+        <f t="shared" si="9"/>
         <v>11417</v>
       </c>
       <c r="T21" s="23">
@@ -5343,26 +5412,26 @@
         <v>10959</v>
       </c>
       <c r="V21" s="24">
-        <f>(S21-S22)/S22</f>
+        <f t="shared" si="6"/>
         <v>1.0264578355897709E-2</v>
       </c>
       <c r="X21">
         <v>2014</v>
       </c>
-      <c r="Y21" s="48">
+      <c r="Y21" s="26">
         <v>32269</v>
       </c>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
       <c r="AB21" s="24">
-        <f>(Y21-Y22)/Y22</f>
+        <f t="shared" si="7"/>
         <v>0.63428716130665996</v>
       </c>
       <c r="AD21">
         <v>2014</v>
       </c>
-      <c r="AE21" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE21" s="26">
+        <f t="shared" si="10"/>
         <v>26095</v>
       </c>
       <c r="AF21" s="23">
@@ -5375,7 +5444,7 @@
         <v>2320</v>
       </c>
       <c r="AI21" s="24">
-        <f>(AE21-AE22)/AE22</f>
+        <f t="shared" si="8"/>
         <v>0.41928641357554663</v>
       </c>
     </row>
@@ -5403,7 +5472,7 @@
       <c r="K22">
         <v>2012</v>
       </c>
-      <c r="L22" s="48">
+      <c r="L22" s="26">
         <f t="shared" si="4"/>
         <v>41454</v>
       </c>
@@ -5423,8 +5492,8 @@
       <c r="R22">
         <v>2013</v>
       </c>
-      <c r="S22" s="48">
-        <f t="shared" si="6"/>
+      <c r="S22" s="26">
+        <f t="shared" si="9"/>
         <v>11301</v>
       </c>
       <c r="T22" s="23">
@@ -5434,26 +5503,26 @@
         <v>7358</v>
       </c>
       <c r="V22" s="24">
-        <f>(S22-S23)/S23</f>
+        <f t="shared" si="6"/>
         <v>-0.15322943203956241</v>
       </c>
       <c r="X22">
         <v>2013</v>
       </c>
-      <c r="Y22" s="48">
+      <c r="Y22" s="26">
         <v>19745</v>
       </c>
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
       <c r="AB22" s="24" t="e">
-        <f>(Y22-Y23)/Y23</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD22">
         <v>2013</v>
       </c>
-      <c r="AE22" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE22" s="26">
+        <f t="shared" si="10"/>
         <v>18386</v>
       </c>
       <c r="AF22" s="23">
@@ -5466,7 +5535,7 @@
         <v>1200</v>
       </c>
       <c r="AI22" s="24">
-        <f>(AE22-AE23)/AE23</f>
+        <f t="shared" si="8"/>
         <v>0.23371133328859961</v>
       </c>
     </row>
@@ -5490,7 +5559,7 @@
       <c r="K23">
         <v>2011</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="26">
         <f t="shared" si="4"/>
         <v>30077</v>
       </c>
@@ -5510,8 +5579,8 @@
       <c r="R23">
         <v>2012</v>
       </c>
-      <c r="S23" s="48">
-        <f t="shared" si="6"/>
+      <c r="S23" s="26">
+        <f t="shared" si="9"/>
         <v>13346</v>
       </c>
       <c r="T23" s="23">
@@ -5521,27 +5590,27 @@
         <v>3273</v>
       </c>
       <c r="V23" s="24">
-        <f>(S23-S24)/S24</f>
+        <f t="shared" si="6"/>
         <v>0.19942482250381954</v>
       </c>
       <c r="X23">
         <v>2012</v>
       </c>
-      <c r="Y23" s="48">
-        <f t="shared" ref="Y23:Y41" si="8">Z23-AA23</f>
+      <c r="Y23" s="26">
+        <f t="shared" ref="Y23:Y41" si="11">Z23-AA23</f>
         <v>0</v>
       </c>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="24" t="e">
-        <f>(Y23-Y24)/Y24</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD23">
         <v>2012</v>
       </c>
-      <c r="AE23" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE23" s="26">
+        <f t="shared" si="10"/>
         <v>14903</v>
       </c>
       <c r="AF23" s="23">
@@ -5554,16 +5623,16 @@
         <v>869</v>
       </c>
       <c r="AI23" s="24">
-        <f>(AE23-AE24)/AE24</f>
+        <f t="shared" si="8"/>
         <v>0.74846301149553107</v>
       </c>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
       <c r="E24">
         <v>2011</v>
       </c>
@@ -5577,7 +5646,7 @@
       <c r="K24">
         <v>2010</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="26">
         <f t="shared" si="4"/>
         <v>16474</v>
       </c>
@@ -5597,8 +5666,8 @@
       <c r="R24">
         <v>2011</v>
       </c>
-      <c r="S24" s="48">
-        <f t="shared" si="6"/>
+      <c r="S24" s="26">
+        <f t="shared" si="9"/>
         <v>11127</v>
       </c>
       <c r="T24" s="23">
@@ -5608,27 +5677,27 @@
         <v>3438</v>
       </c>
       <c r="V24" s="24">
-        <f>(S24-S25)/S25</f>
+        <f t="shared" si="6"/>
         <v>0.57539289253858139</v>
       </c>
       <c r="X24">
         <v>2011</v>
       </c>
-      <c r="Y24" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y24" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z24" s="23"/>
       <c r="AA24" s="23"/>
       <c r="AB24" s="24" t="e">
-        <f>(Y24-Y25)/Y25</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD24">
         <v>2011</v>
       </c>
-      <c r="AE24" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE24" s="26">
+        <f t="shared" si="10"/>
         <v>8523.4860000000008</v>
       </c>
       <c r="AF24" s="23">
@@ -5641,7 +5710,7 @@
         <v>788.375</v>
       </c>
       <c r="AI24" s="24">
-        <f>(AE24-AE25)/AE25</f>
+        <f t="shared" si="8"/>
         <v>-0.19049386461057685</v>
       </c>
     </row>
@@ -5669,7 +5738,7 @@
       <c r="K25">
         <v>2009</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="26">
         <f t="shared" si="4"/>
         <v>8946</v>
       </c>
@@ -5689,8 +5758,8 @@
       <c r="R25">
         <v>2010</v>
       </c>
-      <c r="S25" s="48">
-        <f t="shared" si="6"/>
+      <c r="S25" s="26">
+        <f t="shared" si="9"/>
         <v>7063</v>
       </c>
       <c r="T25" s="23">
@@ -5700,27 +5769,27 @@
         <v>4018</v>
       </c>
       <c r="V25" s="24">
-        <f>(S25-S26)/S26</f>
+        <f t="shared" si="6"/>
         <v>-0.16964495650129321</v>
       </c>
       <c r="X25">
         <v>2010</v>
       </c>
-      <c r="Y25" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y25" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z25" s="23"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="24" t="e">
-        <f>(Y25-Y26)/Y26</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD25">
         <v>2010</v>
       </c>
-      <c r="AE25" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE25" s="26">
+        <f t="shared" si="10"/>
         <v>10529.242</v>
       </c>
       <c r="AF25" s="23">
@@ -5733,7 +5802,7 @@
         <v>301.83100000000002</v>
       </c>
       <c r="AI25" s="24">
-        <f>(AE25-AE26)/AE26</f>
+        <f t="shared" si="8"/>
         <v>0.38952366259936694</v>
       </c>
     </row>
@@ -5761,7 +5830,7 @@
       <c r="K26">
         <v>2008</v>
       </c>
-      <c r="L26" s="48">
+      <c r="L26" s="26">
         <f t="shared" si="4"/>
         <v>8397</v>
       </c>
@@ -5781,8 +5850,8 @@
       <c r="R26">
         <v>2009</v>
       </c>
-      <c r="S26" s="48">
-        <f t="shared" si="6"/>
+      <c r="S26" s="26">
+        <f t="shared" si="9"/>
         <v>8506</v>
       </c>
       <c r="T26" s="23">
@@ -5792,27 +5861,27 @@
         <v>810</v>
       </c>
       <c r="V26" s="24">
-        <f>(S26-S27)/S27</f>
+        <f t="shared" si="6"/>
         <v>0.54823443756825629</v>
       </c>
       <c r="X26">
         <v>2009</v>
       </c>
-      <c r="Y26" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y26" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
       <c r="AB26" s="24" t="e">
-        <f>(Y26-Y27)/Y27</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD26">
         <v>2009</v>
       </c>
-      <c r="AE26" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE26" s="26">
+        <f t="shared" si="10"/>
         <v>7577.5910000000003</v>
       </c>
       <c r="AF26" s="23">
@@ -5825,7 +5894,7 @@
         <v>31.95</v>
       </c>
       <c r="AI26" s="24">
-        <f>(AE26-AE27)/AE27</f>
+        <f t="shared" si="8"/>
         <v>1.2450451833063674</v>
       </c>
     </row>
@@ -5850,7 +5919,7 @@
       <c r="K27">
         <v>2007</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="26">
         <f t="shared" si="4"/>
         <v>4484</v>
       </c>
@@ -5870,8 +5939,8 @@
       <c r="R27">
         <v>2008</v>
       </c>
-      <c r="S27" s="48">
-        <f t="shared" si="6"/>
+      <c r="S27" s="26">
+        <f t="shared" si="9"/>
         <v>5494</v>
       </c>
       <c r="T27" s="23">
@@ -5881,27 +5950,27 @@
         <v>2359</v>
       </c>
       <c r="V27" s="24">
-        <f>(S27-S28)/S28</f>
+        <f t="shared" si="6"/>
         <v>0.62930011862396207</v>
       </c>
       <c r="X27">
         <v>2008</v>
       </c>
-      <c r="Y27" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y27" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
       <c r="AB27" s="24" t="e">
-        <f>(Y27-Y28)/Y28</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD27">
         <v>2008</v>
       </c>
-      <c r="AE27" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE27" s="26">
+        <f t="shared" si="10"/>
         <v>3375.2510000000002</v>
       </c>
       <c r="AF27" s="23">
@@ -5914,16 +5983,16 @@
         <v>71.367999999999995</v>
       </c>
       <c r="AI27" s="24">
-        <f>(AE27-AE28)/AE28</f>
+        <f t="shared" si="8"/>
         <v>3.3734577419346481</v>
       </c>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
       <c r="E28">
         <v>2007</v>
       </c>
@@ -5937,7 +6006,7 @@
       <c r="K28">
         <v>2006</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="26">
         <f t="shared" si="4"/>
         <v>1535</v>
       </c>
@@ -5957,8 +6026,8 @@
       <c r="R28">
         <v>2007</v>
       </c>
-      <c r="S28" s="48">
-        <f t="shared" si="6"/>
+      <c r="S28" s="26">
+        <f t="shared" si="9"/>
         <v>3372</v>
       </c>
       <c r="T28" s="23">
@@ -5968,27 +6037,27 @@
         <v>2403</v>
       </c>
       <c r="V28" s="24">
-        <f>(S28-S29)/S29</f>
+        <f t="shared" si="6"/>
         <v>1.0107334525939178</v>
       </c>
       <c r="X28">
         <v>2007</v>
       </c>
-      <c r="Y28" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y28" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z28" s="23"/>
       <c r="AA28" s="23"/>
       <c r="AB28" s="24" t="e">
-        <f>(Y28-Y29)/Y29</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD28">
         <v>2007</v>
       </c>
-      <c r="AE28" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE28" s="26">
+        <f t="shared" si="10"/>
         <v>771.75800000000004</v>
       </c>
       <c r="AF28" s="23">
@@ -6001,7 +6070,7 @@
         <v>197.16499999999999</v>
       </c>
       <c r="AI28" s="24">
-        <f>(AE28-AE29)/AE29</f>
+        <f t="shared" si="8"/>
         <v>-0.34039243572365058</v>
       </c>
     </row>
@@ -6029,7 +6098,7 @@
       <c r="K29">
         <v>2005</v>
       </c>
-      <c r="L29" s="48">
+      <c r="L29" s="26">
         <f t="shared" si="4"/>
         <v>2275</v>
       </c>
@@ -6047,8 +6116,8 @@
       <c r="R29">
         <v>2006</v>
       </c>
-      <c r="S29" s="48">
-        <f t="shared" si="6"/>
+      <c r="S29" s="26">
+        <f t="shared" si="9"/>
         <v>1677</v>
       </c>
       <c r="T29" s="23">
@@ -6058,27 +6127,27 @@
         <v>1903</v>
       </c>
       <c r="V29" s="24">
-        <f>(S29-S30)/S30</f>
+        <f t="shared" si="6"/>
         <v>3.4546576187538557E-2</v>
       </c>
       <c r="X29">
         <v>2006</v>
       </c>
-      <c r="Y29" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y29" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z29" s="23"/>
       <c r="AA29" s="23"/>
       <c r="AB29" s="24" t="e">
-        <f>(Y29-Y30)/Y30</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD29">
         <v>2006</v>
       </c>
-      <c r="AE29" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE29" s="26">
+        <f t="shared" si="10"/>
         <v>1170.0260000000001</v>
       </c>
       <c r="AF29" s="23">
@@ -6091,7 +6160,7 @@
         <v>23.718</v>
       </c>
       <c r="AI29" s="24">
-        <f>(AE29-AE30)/AE30</f>
+        <f t="shared" si="8"/>
         <v>0.60408497896913127</v>
       </c>
     </row>
@@ -6115,7 +6184,7 @@
       <c r="K30">
         <v>2004</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="26">
         <f t="shared" si="4"/>
         <v>758</v>
       </c>
@@ -6133,8 +6202,8 @@
       <c r="R30">
         <v>2005</v>
       </c>
-      <c r="S30" s="48">
-        <f t="shared" si="6"/>
+      <c r="S30" s="26">
+        <f t="shared" si="9"/>
         <v>1621</v>
       </c>
       <c r="T30" s="23">
@@ -6144,27 +6213,27 @@
         <v>838</v>
       </c>
       <c r="V30" s="24">
-        <f>(S30-S31)/S31</f>
+        <f t="shared" si="6"/>
         <v>1.7568027210884354</v>
       </c>
       <c r="X30">
         <v>2005</v>
       </c>
-      <c r="Y30" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y30" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
       <c r="AB30" s="24" t="e">
-        <f>(Y30-Y31)/Y31</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD30">
         <v>2005</v>
       </c>
-      <c r="AE30" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE30" s="26">
+        <f t="shared" si="10"/>
         <v>729.40399999999988</v>
       </c>
       <c r="AF30" s="23">
@@ -6177,7 +6246,7 @@
         <v>8.1180000000000003</v>
       </c>
       <c r="AI30" s="24">
-        <f>(AE30-AE31)/AE31</f>
+        <f t="shared" si="8"/>
         <v>5.2320915926179081</v>
       </c>
     </row>
@@ -6204,7 +6273,7 @@
       <c r="K31">
         <v>2003</v>
       </c>
-      <c r="L31" s="48">
+      <c r="L31" s="26">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
@@ -6222,8 +6291,8 @@
       <c r="R31">
         <v>2004</v>
       </c>
-      <c r="S31" s="48">
-        <f t="shared" si="6"/>
+      <c r="S31" s="26">
+        <f t="shared" si="9"/>
         <v>588</v>
       </c>
       <c r="T31" s="23">
@@ -6233,27 +6302,27 @@
         <v>389</v>
       </c>
       <c r="V31" s="24">
-        <f>(S31-S32)/S32</f>
+        <f t="shared" si="6"/>
         <v>1.6972477064220184</v>
       </c>
       <c r="X31">
         <v>2004</v>
       </c>
-      <c r="Y31" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y31" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
       <c r="AB31" s="24" t="e">
-        <f>(Y31-Y32)/Y32</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD31">
         <v>2004</v>
       </c>
-      <c r="AE31" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE31" s="26">
+        <f t="shared" si="10"/>
         <v>117.03999999999999</v>
       </c>
       <c r="AF31" s="23">
@@ -6264,7 +6333,7 @@
       </c>
       <c r="AH31" s="23"/>
       <c r="AI31" s="24" t="e">
-        <f>(AE31-AE32)/AE32</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6291,7 +6360,7 @@
       <c r="K32">
         <v>2002</v>
       </c>
-      <c r="L32" s="48">
+      <c r="L32" s="26">
         <f t="shared" si="4"/>
         <v>-85</v>
       </c>
@@ -6309,8 +6378,8 @@
       <c r="R32">
         <v>2003</v>
       </c>
-      <c r="S32" s="48">
-        <f t="shared" si="6"/>
+      <c r="S32" s="26">
+        <f t="shared" si="9"/>
         <v>218</v>
       </c>
       <c r="T32" s="23">
@@ -6320,34 +6389,34 @@
         <v>177</v>
       </c>
       <c r="V32" s="24">
-        <f>(S32-S33)/S33</f>
+        <f t="shared" si="6"/>
         <v>0.84745762711864403</v>
       </c>
       <c r="X32">
         <v>2003</v>
       </c>
-      <c r="Y32" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y32" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
       <c r="AB32" s="24" t="e">
-        <f>(Y32-Y33)/Y33</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD32">
         <v>2003</v>
       </c>
-      <c r="AE32" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE32" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF32" s="23"/>
       <c r="AG32" s="23"/>
       <c r="AH32" s="23"/>
       <c r="AI32" s="24" t="e">
-        <f>(AE32-AE33)/AE33</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6374,7 +6443,7 @@
       <c r="K33">
         <v>2001</v>
       </c>
-      <c r="L33" s="48">
+      <c r="L33" s="26">
         <f t="shared" si="4"/>
         <v>-47</v>
       </c>
@@ -6392,8 +6461,8 @@
       <c r="R33">
         <v>2002</v>
       </c>
-      <c r="S33" s="48">
-        <f t="shared" si="6"/>
+      <c r="S33" s="26">
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="T33" s="23">
@@ -6406,8 +6475,8 @@
       <c r="X33">
         <v>2002</v>
       </c>
-      <c r="Y33" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y33" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z33" s="23"/>
@@ -6416,8 +6485,8 @@
       <c r="AD33">
         <v>2002</v>
       </c>
-      <c r="AE33" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE33" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF33" s="23"/>
@@ -6446,7 +6515,7 @@
       <c r="K34">
         <v>2000</v>
       </c>
-      <c r="L34" s="48">
+      <c r="L34" s="26">
         <f t="shared" si="4"/>
         <v>726</v>
       </c>
@@ -6464,8 +6533,8 @@
       <c r="R34">
         <v>2001</v>
       </c>
-      <c r="S34" s="48">
-        <f t="shared" si="6"/>
+      <c r="S34" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T34" s="23"/>
@@ -6474,8 +6543,8 @@
       <c r="X34">
         <v>2001</v>
       </c>
-      <c r="Y34" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y34" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z34" s="23"/>
@@ -6484,8 +6553,8 @@
       <c r="AD34">
         <v>2001</v>
       </c>
-      <c r="AE34" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE34" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF34" s="23"/>
@@ -6514,7 +6583,7 @@
       <c r="K35">
         <v>1999</v>
       </c>
-      <c r="L35" s="48">
+      <c r="L35" s="26">
         <f t="shared" si="4"/>
         <v>751</v>
       </c>
@@ -6532,8 +6601,8 @@
       <c r="R35">
         <v>2000</v>
       </c>
-      <c r="S35" s="48">
-        <f t="shared" si="6"/>
+      <c r="S35" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T35" s="23"/>
@@ -6542,8 +6611,8 @@
       <c r="X35">
         <v>2000</v>
       </c>
-      <c r="Y35" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y35" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z35" s="23"/>
@@ -6552,8 +6621,8 @@
       <c r="AD35">
         <v>2000</v>
       </c>
-      <c r="AE35" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE35" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF35" s="23"/>
@@ -6566,7 +6635,7 @@
         <v>1999</v>
       </c>
       <c r="F36" s="23">
-        <f t="shared" ref="F36:F39" si="9">H36-I36</f>
+        <f t="shared" ref="F36:F39" si="12">H36-I36</f>
         <v>-196.18</v>
       </c>
       <c r="G36" s="24">
@@ -6582,7 +6651,7 @@
       <c r="K36">
         <v>1998</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L36" s="26">
         <f t="shared" si="4"/>
         <v>729</v>
       </c>
@@ -6600,8 +6669,8 @@
       <c r="R36">
         <v>1999</v>
       </c>
-      <c r="S36" s="48">
-        <f t="shared" si="6"/>
+      <c r="S36" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T36" s="23"/>
@@ -6610,8 +6679,8 @@
       <c r="X36">
         <v>1999</v>
       </c>
-      <c r="Y36" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y36" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z36" s="23"/>
@@ -6620,8 +6689,8 @@
       <c r="AD36">
         <v>1999</v>
       </c>
-      <c r="AE36" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE36" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF36" s="23"/>
@@ -6634,7 +6703,7 @@
         <v>1998</v>
       </c>
       <c r="F37" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.7020000000000017</v>
       </c>
       <c r="G37" s="24">
@@ -6650,7 +6719,7 @@
       <c r="K37">
         <v>1997</v>
       </c>
-      <c r="L37" s="48">
+      <c r="L37" s="26">
         <f t="shared" si="4"/>
         <v>101</v>
       </c>
@@ -6668,8 +6737,8 @@
       <c r="R37">
         <v>1998</v>
       </c>
-      <c r="S37" s="48">
-        <f t="shared" si="6"/>
+      <c r="S37" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T37" s="23"/>
@@ -6678,8 +6747,8 @@
       <c r="X37">
         <v>1998</v>
       </c>
-      <c r="Y37" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y37" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z37" s="23"/>
@@ -6688,8 +6757,8 @@
       <c r="AD37">
         <v>1998</v>
       </c>
-      <c r="AE37" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE37" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF37" s="23"/>
@@ -6702,7 +6771,7 @@
         <v>1997</v>
       </c>
       <c r="F38" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6.9159999999999995</v>
       </c>
       <c r="G38" s="24">
@@ -6718,7 +6787,7 @@
       <c r="K38">
         <v>1996</v>
       </c>
-      <c r="L38" s="48">
+      <c r="L38" s="26">
         <f t="shared" si="4"/>
         <v>452</v>
       </c>
@@ -6736,8 +6805,8 @@
       <c r="R38">
         <v>1997</v>
       </c>
-      <c r="S38" s="48">
-        <f t="shared" si="6"/>
+      <c r="S38" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T38" s="23"/>
@@ -6746,8 +6815,8 @@
       <c r="X38">
         <v>1997</v>
       </c>
-      <c r="Y38" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y38" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z38" s="23"/>
@@ -6756,8 +6825,8 @@
       <c r="AD38">
         <v>1997</v>
       </c>
-      <c r="AE38" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE38" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF38" s="23"/>
@@ -6770,7 +6839,7 @@
         <v>1996</v>
       </c>
       <c r="F39" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.67499999999999982</v>
       </c>
       <c r="G39" s="24">
@@ -6786,7 +6855,7 @@
       <c r="K39">
         <v>1995</v>
       </c>
-      <c r="L39" s="48">
+      <c r="L39" s="26">
         <f t="shared" si="4"/>
         <v>-399</v>
       </c>
@@ -6804,8 +6873,8 @@
       <c r="R39">
         <v>1996</v>
       </c>
-      <c r="S39" s="48">
-        <f t="shared" si="6"/>
+      <c r="S39" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T39" s="23"/>
@@ -6814,8 +6883,8 @@
       <c r="X39">
         <v>1996</v>
       </c>
-      <c r="Y39" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y39" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z39" s="23"/>
@@ -6824,8 +6893,8 @@
       <c r="AD39">
         <v>1996</v>
       </c>
-      <c r="AE39" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE39" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF39" s="23"/>
@@ -6838,7 +6907,7 @@
         <v>1995</v>
       </c>
       <c r="F40" s="23">
-        <f t="shared" ref="F40" si="10">H40-I40</f>
+        <f t="shared" ref="F40" si="13">H40-I40</f>
         <v>0.18000000000000002</v>
       </c>
       <c r="G40" s="24"/>
@@ -6851,7 +6920,7 @@
       <c r="K40">
         <v>1994</v>
       </c>
-      <c r="L40" s="48">
+      <c r="L40" s="26">
         <f t="shared" si="4"/>
         <v>577</v>
       </c>
@@ -6865,8 +6934,8 @@
       <c r="R40">
         <v>1995</v>
       </c>
-      <c r="S40" s="48">
-        <f t="shared" si="6"/>
+      <c r="S40" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T40" s="23"/>
@@ -6875,8 +6944,8 @@
       <c r="X40">
         <v>1995</v>
       </c>
-      <c r="Y40" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y40" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z40" s="23"/>
@@ -6885,8 +6954,8 @@
       <c r="AD40">
         <v>1995</v>
       </c>
-      <c r="AE40" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE40" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF40" s="23"/>
@@ -6895,25 +6964,25 @@
       <c r="AI40" s="24"/>
     </row>
     <row r="41" spans="1:35">
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="K41" s="50" t="s">
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="K41" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
       <c r="R41">
         <v>1994</v>
       </c>
-      <c r="S41" s="48">
-        <f t="shared" si="6"/>
+      <c r="S41" s="26">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T41" s="23"/>
@@ -6921,8 +6990,8 @@
       <c r="X41">
         <v>1994</v>
       </c>
-      <c r="Y41" s="48">
-        <f t="shared" si="8"/>
+      <c r="Y41" s="26">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z41" s="23"/>
@@ -6930,8 +6999,8 @@
       <c r="AD41">
         <v>1994</v>
       </c>
-      <c r="AE41" s="48">
-        <f t="shared" si="7"/>
+      <c r="AE41" s="26">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF41" s="23"/>
@@ -6959,27 +7028,27 @@
         <f>VLOOKUP(L42, K17:L40, 2, FALSE)</f>
         <v>4484</v>
       </c>
-      <c r="R42" s="50" t="s">
+      <c r="R42" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
-      <c r="X42" s="50" t="s">
+      <c r="S42" s="49"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="49"/>
+      <c r="X42" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="Y42" s="50"/>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AD42" s="50" t="s">
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AD42" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="49"/>
     </row>
     <row r="43" spans="1:35">
       <c r="E43" t="s">
@@ -7080,20 +7149,20 @@
       </c>
     </row>
     <row r="45" spans="1:35">
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="K45" s="50" t="s">
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="K45" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
       <c r="R45" t="s">
         <v>51</v>
       </c>
@@ -7137,27 +7206,27 @@
         <f>VLOOKUP(L46, K17:L40, 2, FALSE)</f>
         <v>50803</v>
       </c>
-      <c r="R46" s="50" t="s">
+      <c r="R46" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
-      <c r="X46" s="50" t="s">
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="X46" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="Y46" s="50"/>
-      <c r="Z46" s="50"/>
-      <c r="AA46" s="50"/>
-      <c r="AB46" s="50"/>
-      <c r="AD46" s="50" t="s">
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AD46" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
+      <c r="AE46" s="49"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="49"/>
     </row>
     <row r="47" spans="1:35">
       <c r="E47" t="s">
@@ -7417,6 +7486,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="K41:O41"/>
+    <mergeCell ref="K45:O45"/>
     <mergeCell ref="AD42:AH42"/>
     <mergeCell ref="AD46:AH46"/>
     <mergeCell ref="AD15:AI15"/>
@@ -7426,15 +7504,6 @@
     <mergeCell ref="X15:AB15"/>
     <mergeCell ref="X42:AB42"/>
     <mergeCell ref="X46:AB46"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="K41:O41"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="K15:P15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -7452,4 +7521,1070 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4C8CD5-CEF3-2942-8242-37F9A518E589}">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9:S18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="23">
+      <c r="A1" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="F1" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="K1" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="P1" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="51">
+        <v>34157</v>
+      </c>
+      <c r="C3" s="52">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="F3" s="51">
+        <v>34157</v>
+      </c>
+      <c r="H3" s="52">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="K3" s="51">
+        <v>34157</v>
+      </c>
+      <c r="M3" s="52">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="P3" s="51">
+        <v>34157</v>
+      </c>
+      <c r="R3" s="52">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="51">
+        <v>34337</v>
+      </c>
+      <c r="C4" s="52">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="F4" s="51">
+        <v>34337</v>
+      </c>
+      <c r="H4" s="52">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="K4" s="51">
+        <v>34337</v>
+      </c>
+      <c r="M4" s="52">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="P4" s="51">
+        <v>34337</v>
+      </c>
+      <c r="R4" s="52">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="51">
+        <v>34702</v>
+      </c>
+      <c r="C5" s="52">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="F5" s="51">
+        <v>34702</v>
+      </c>
+      <c r="H5" s="52">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="K5" s="51">
+        <v>34702</v>
+      </c>
+      <c r="M5" s="52">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="P5" s="51">
+        <v>34702</v>
+      </c>
+      <c r="R5" s="52">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="51">
+        <v>35066</v>
+      </c>
+      <c r="C6" s="52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F6" s="51">
+        <v>35066</v>
+      </c>
+      <c r="H6" s="52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K6" s="51">
+        <v>35066</v>
+      </c>
+      <c r="M6" s="52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P6" s="51">
+        <v>35066</v>
+      </c>
+      <c r="R6" s="52">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="51">
+        <v>35432</v>
+      </c>
+      <c r="C7" s="52">
+        <v>4.65E-2</v>
+      </c>
+      <c r="F7" s="51">
+        <v>35432</v>
+      </c>
+      <c r="H7" s="52">
+        <v>4.65E-2</v>
+      </c>
+      <c r="K7" s="51">
+        <v>35432</v>
+      </c>
+      <c r="M7" s="52">
+        <v>4.65E-2</v>
+      </c>
+      <c r="P7" s="51">
+        <v>35432</v>
+      </c>
+      <c r="R7" s="52">
+        <v>4.65E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="51">
+        <v>35797</v>
+      </c>
+      <c r="C8" s="52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F8" s="51">
+        <v>35797</v>
+      </c>
+      <c r="H8" s="52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K8" s="51">
+        <v>35797</v>
+      </c>
+      <c r="M8" s="52">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P8" s="51">
+        <v>35797</v>
+      </c>
+      <c r="R8" s="52">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="51">
+        <v>36164</v>
+      </c>
+      <c r="C9" s="52">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="D9" s="52">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="F9" s="51">
+        <v>36164</v>
+      </c>
+      <c r="H9" s="52">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="I9" s="52">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="K9" s="51">
+        <v>36164</v>
+      </c>
+      <c r="M9" s="52">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="N9" s="52">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="P9" s="51">
+        <v>36164</v>
+      </c>
+      <c r="R9" s="52">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="S9" s="52">
+        <v>6.9500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="51">
+        <v>36528</v>
+      </c>
+      <c r="C10" s="52">
+        <v>5.04E-2</v>
+      </c>
+      <c r="D10" s="52">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="F10" s="51">
+        <v>36528</v>
+      </c>
+      <c r="H10" s="52">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I10" s="52">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="K10" s="51">
+        <v>36528</v>
+      </c>
+      <c r="M10" s="52">
+        <v>5.04E-2</v>
+      </c>
+      <c r="N10" s="52">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="P10" s="51">
+        <v>36528</v>
+      </c>
+      <c r="R10" s="52">
+        <v>5.04E-2</v>
+      </c>
+      <c r="S10" s="52">
+        <v>7.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="51">
+        <v>36893</v>
+      </c>
+      <c r="C11" s="52">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="D11" s="52">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="F11" s="51">
+        <v>36893</v>
+      </c>
+      <c r="H11" s="52">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="I11" s="52">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="K11" s="51">
+        <v>36893</v>
+      </c>
+      <c r="M11" s="52">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="N11" s="52">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="P11" s="51">
+        <v>36893</v>
+      </c>
+      <c r="R11" s="52">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="S11" s="52">
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="51">
+        <v>37258</v>
+      </c>
+      <c r="B12" s="52">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C12" s="52">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="D12" s="52">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="F12" s="51">
+        <v>37258</v>
+      </c>
+      <c r="G12" s="52">
+        <v>-4.3900000000000002E-2</v>
+      </c>
+      <c r="H12" s="52">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="I12" s="52">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="K12" s="51">
+        <v>37258</v>
+      </c>
+      <c r="L12" s="52">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="M12" s="52">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="N12" s="52">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="P12" s="51">
+        <v>37258</v>
+      </c>
+      <c r="Q12" s="52">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="R12" s="52">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="S12" s="52">
+        <v>8.3500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="51">
+        <v>37623</v>
+      </c>
+      <c r="B13" s="52">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C13" s="52">
+        <v>5.67E-2</v>
+      </c>
+      <c r="D13" s="52">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="F13" s="51">
+        <v>37623</v>
+      </c>
+      <c r="G13" s="52">
+        <v>-6.7599999999999993E-2</v>
+      </c>
+      <c r="H13" s="52">
+        <v>5.67E-2</v>
+      </c>
+      <c r="I13" s="52">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="K13" s="51">
+        <v>37623</v>
+      </c>
+      <c r="L13" s="52">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="M13" s="52">
+        <v>5.67E-2</v>
+      </c>
+      <c r="N13" s="52">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="P13" s="51">
+        <v>37623</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R13" s="52">
+        <v>5.67E-2</v>
+      </c>
+      <c r="S13" s="52">
+        <v>8.5400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="51">
+        <v>37988</v>
+      </c>
+      <c r="B14" s="52">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="C14" s="52">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D14" s="52">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="F14" s="51">
+        <v>37988</v>
+      </c>
+      <c r="G14" s="52">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="H14" s="52">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="I14" s="52">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="K14" s="51">
+        <v>37988</v>
+      </c>
+      <c r="L14" s="52">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="M14" s="52">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="N14" s="52">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="P14" s="51">
+        <v>37988</v>
+      </c>
+      <c r="Q14" s="52">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R14" s="52">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="S14" s="52">
+        <v>8.6900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="51">
+        <v>38355</v>
+      </c>
+      <c r="B15" s="52">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="C15" s="52">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="F15" s="51">
+        <v>38355</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="H15" s="52">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="I15" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="K15" s="51">
+        <v>38355</v>
+      </c>
+      <c r="L15" s="52">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="M15" s="52">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="N15" s="52">
+        <v>0.09</v>
+      </c>
+      <c r="P15" s="51">
+        <v>38355</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="R15" s="52">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="S15" s="52">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="51">
+        <v>38720</v>
+      </c>
+      <c r="B16" s="52">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="C16" s="52">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="D16" s="52">
+        <v>9.35E-2</v>
+      </c>
+      <c r="F16" s="51">
+        <v>38720</v>
+      </c>
+      <c r="G16" s="52">
+        <v>-3.6900000000000002E-2</v>
+      </c>
+      <c r="H16" s="52">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="I16" s="52">
+        <v>9.35E-2</v>
+      </c>
+      <c r="K16" s="51">
+        <v>38720</v>
+      </c>
+      <c r="L16" s="52">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="M16" s="52">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="N16" s="52">
+        <v>9.35E-2</v>
+      </c>
+      <c r="P16" s="51">
+        <v>38720</v>
+      </c>
+      <c r="Q16" s="52">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="R16" s="52">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="S16" s="52">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="51">
+        <v>39085</v>
+      </c>
+      <c r="B17" s="52">
+        <v>1.26E-2</v>
+      </c>
+      <c r="C17" s="52">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D17" s="52">
+        <v>9.74E-2</v>
+      </c>
+      <c r="F17" s="51">
+        <v>39085</v>
+      </c>
+      <c r="G17" s="52">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="H17" s="52">
+        <v>6.54E-2</v>
+      </c>
+      <c r="I17" s="52">
+        <v>9.74E-2</v>
+      </c>
+      <c r="K17" s="51">
+        <v>39085</v>
+      </c>
+      <c r="L17" s="52">
+        <v>-2.9399999999999999E-2</v>
+      </c>
+      <c r="M17" s="52">
+        <v>6.54E-2</v>
+      </c>
+      <c r="N17" s="52">
+        <v>9.74E-2</v>
+      </c>
+      <c r="P17" s="51">
+        <v>39085</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>2.24E-2</v>
+      </c>
+      <c r="R17" s="52">
+        <v>6.54E-2</v>
+      </c>
+      <c r="S17" s="52">
+        <v>9.74E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="51">
+        <v>39449</v>
+      </c>
+      <c r="B18" s="52">
+        <v>1.52E-2</v>
+      </c>
+      <c r="C18" s="52">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0.1032</v>
+      </c>
+      <c r="F18" s="51">
+        <v>39449</v>
+      </c>
+      <c r="G18" s="52">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H18" s="52">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="I18" s="52">
+        <v>0.1032</v>
+      </c>
+      <c r="K18" s="51">
+        <v>39449</v>
+      </c>
+      <c r="L18" s="52">
+        <v>-5.3900000000000003E-2</v>
+      </c>
+      <c r="M18" s="52">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="N18" s="52">
+        <v>0.1032</v>
+      </c>
+      <c r="P18" s="51">
+        <v>39449</v>
+      </c>
+      <c r="Q18" s="52">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="R18" s="52">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="S18" s="52">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="51">
+        <v>39815</v>
+      </c>
+      <c r="B19" s="52">
+        <v>1.67E-2</v>
+      </c>
+      <c r="C19" s="52">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="F19" s="51">
+        <v>39815</v>
+      </c>
+      <c r="G19" s="52">
+        <v>-3.8699999999999998E-2</v>
+      </c>
+      <c r="H19" s="52">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="I19" s="52">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="K19" s="51">
+        <v>39815</v>
+      </c>
+      <c r="L19" s="52">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="M19" s="52">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="N19" s="52">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="P19" s="51">
+        <v>39815</v>
+      </c>
+      <c r="Q19" s="52"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="51">
+        <v>40182</v>
+      </c>
+      <c r="B20" s="52">
+        <v>1.77E-2</v>
+      </c>
+      <c r="C20" s="52">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0.1028</v>
+      </c>
+      <c r="F20" s="51">
+        <v>40182</v>
+      </c>
+      <c r="G20" s="52">
+        <v>-8.72E-2</v>
+      </c>
+      <c r="H20" s="52">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="I20" s="52">
+        <v>0.1028</v>
+      </c>
+      <c r="K20" s="51">
+        <v>40182</v>
+      </c>
+      <c r="L20" s="52">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="M20" s="52">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="N20" s="52">
+        <v>0.1028</v>
+      </c>
+      <c r="P20" s="51">
+        <v>40182</v>
+      </c>
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="51">
+        <v>40546</v>
+      </c>
+      <c r="B21" s="52">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="C21" s="52">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F21" s="51">
+        <v>40546</v>
+      </c>
+      <c r="G21" s="52">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="H21" s="52">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="I21" s="52">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K21" s="51">
+        <v>40546</v>
+      </c>
+      <c r="L21" s="52">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="M21" s="52">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="N21" s="52">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P21" s="51">
+        <v>40546</v>
+      </c>
+      <c r="Q21" s="52"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="51">
+        <v>40911</v>
+      </c>
+      <c r="B22" s="52">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="C22" s="52">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="D22" s="52">
+        <v>0.1022</v>
+      </c>
+      <c r="F22" s="51">
+        <v>40911</v>
+      </c>
+      <c r="G22" s="52">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="H22" s="52">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="I22" s="52">
+        <v>0.1022</v>
+      </c>
+      <c r="K22" s="51">
+        <v>40911</v>
+      </c>
+      <c r="L22" s="52">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="M22" s="52">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="N22" s="52">
+        <v>0.1022</v>
+      </c>
+      <c r="P22" s="51">
+        <v>40911</v>
+      </c>
+      <c r="Q22" s="52"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="51">
+        <v>41276</v>
+      </c>
+      <c r="B23" s="52">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="C23" s="52">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="D23" s="52">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F23" s="51">
+        <v>41276</v>
+      </c>
+      <c r="G23" s="52">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="H23" s="52">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="I23" s="52">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K23" s="51">
+        <v>41276</v>
+      </c>
+      <c r="L23" s="52">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="M23" s="52">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="N23" s="52">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="P23" s="51">
+        <v>41276</v>
+      </c>
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="51">
+        <v>41641</v>
+      </c>
+      <c r="B24" s="52">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C24" s="52">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D24" s="52">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="F24" s="51">
+        <v>41641</v>
+      </c>
+      <c r="G24" s="52">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="H24" s="52">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I24" s="52">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="K24" s="51">
+        <v>41641</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="P24" s="51">
+        <v>41641</v>
+      </c>
+      <c r="Q24" s="52"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="51">
+        <v>42006</v>
+      </c>
+      <c r="B25" s="52">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="C25" s="52">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="D25" s="52">
+        <v>0.1066</v>
+      </c>
+      <c r="F25" s="51">
+        <v>42006</v>
+      </c>
+      <c r="G25" s="52">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="H25" s="52">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="I25" s="52">
+        <v>0.1066</v>
+      </c>
+      <c r="K25" s="51">
+        <v>42006</v>
+      </c>
+      <c r="L25" s="52"/>
+      <c r="P25" s="51">
+        <v>42006</v>
+      </c>
+      <c r="Q25" s="52"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="51">
+        <v>42373</v>
+      </c>
+      <c r="B26" s="52">
+        <v>-1.11E-2</v>
+      </c>
+      <c r="C26" s="52">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0.123</v>
+      </c>
+      <c r="F26" s="51">
+        <v>42373</v>
+      </c>
+      <c r="K26" s="51">
+        <v>42373</v>
+      </c>
+      <c r="P26" s="51">
+        <v>42373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="51">
+        <v>42738</v>
+      </c>
+      <c r="B27" s="52">
+        <v>-5.5100000000000003E-2</v>
+      </c>
+      <c r="C27" s="52">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0.1187</v>
+      </c>
+      <c r="F27" s="51">
+        <v>42738</v>
+      </c>
+      <c r="K27" s="51">
+        <v>42738</v>
+      </c>
+      <c r="P27" s="51">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="D28" s="52"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="D29" s="52"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="D30" s="52"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="D31" s="52"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="D32" s="52"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/Documents/GitHub/finance-learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C1800618-9415-B245-8D2D-382B53FB1D11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6AC4EC-15E0-4D4C-9B49-20D729BFA09E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="460" windowWidth="63440" windowHeight="30360" activeTab="2" xr2:uid="{6125BCB1-7DDC-4E47-95AD-042A0A9DD922}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="估值定投计算" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="95">
   <si>
     <t>标普500</t>
     <rPh sb="0" eb="2">
@@ -516,41 +517,36 @@
   </si>
   <si>
     <t>每月定投，至2018-07复合收益率</t>
-    <rPh sb="0" eb="221">
-      <t>mei'yu</t>
+    <rPh sb="0" eb="18">
+      <t>mei'yuzhi'ji</t>
     </rPh>
-    <rPh sb="221" eb="223">
-      <t>zhi'ji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月定投，3年复合收益率</t>
+    <rPh sb="0" eb="12">
+      <t>mei'yuzhi'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每月定投，3年复合收益率</t>
-    <rPh sb="0" eb="236">
-      <t>mei'yu</t>
+    <t>每月定投，5年复合收益率</t>
+    <rPh sb="0" eb="12">
+      <t>mei'yuzhi'ji</t>
     </rPh>
-    <rPh sb="236" eb="238">
-      <t>zhi'ji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月定投，10年复合收益率</t>
+    <rPh sb="0" eb="13">
+      <t>mei'yuzhi'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每月定投，5年复合收益率</t>
-    <rPh sb="0" eb="247">
-      <t>mei'yu</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>zhi'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月定投，10年复合收益率</t>
-    <rPh sb="0" eb="260">
-      <t>mei'yu</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>zhi'ji</t>
+    <t>每月定投，2年复合收益率</t>
+    <rPh sb="0" eb="12">
+      <t>mei'yuzhi'ji</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -564,7 +560,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="yyyy&quot;-&quot;mm;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;-&quot;mm;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -770,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +851,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,12 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1492,7 +1491,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -1529,7 +1528,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
-      <c r="A2" s="41"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="17"/>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -1560,7 +1559,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="41"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1591,31 +1590,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="24" thickBot="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="34">
         <f>(E3/E2)^(1/((D3-D2)/365))-1</f>
         <v>2.7741576196196327E-3</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31">
+      <c r="E4" s="35"/>
+      <c r="F4" s="34">
         <f>(G3/G2)^(1/((F3-F2)/365))-1</f>
         <v>3.4391511757527748E-3</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="31">
+      <c r="G4" s="35"/>
+      <c r="H4" s="34">
         <f>(I3/I2)^(1/((H3-H2)/365))-1</f>
         <v>2.5787295647958786E-3</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="31">
+      <c r="I4" s="35"/>
+      <c r="J4" s="34">
         <f>(K3/K2)^(1/((J3-J2)/365))-1</f>
         <v>1.0995052226498103E-2</v>
       </c>
-      <c r="K4" s="32"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="23">
       <c r="A5" s="13"/>
@@ -1625,7 +1624,7 @@
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="43" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1662,7 +1661,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18">
-      <c r="A7" s="41"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -1693,7 +1692,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="41"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -1724,31 +1723,31 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24" thickBot="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="34">
         <f>(E8/E7)^(1/((D8-D7)/365))-1</f>
         <v>4.0846120295237043E-3</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31">
+      <c r="E9" s="35"/>
+      <c r="F9" s="34">
         <f>(G8/G7)^(1/((F8-F7)/365))-1</f>
         <v>4.4756377204877573E-3</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31">
+      <c r="G9" s="35"/>
+      <c r="H9" s="34">
         <f>(I8/I7)^(1/((H8-H7)/365))-1</f>
         <v>2.9782798360282747E-3</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31">
+      <c r="I9" s="35"/>
+      <c r="J9" s="34">
         <f>(K8/K7)^(1/((J8-J7)/365))-1</f>
         <v>-2.5164769322948422E-3</v>
       </c>
-      <c r="K9" s="32"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:13" ht="23">
       <c r="A10" s="9"/>
@@ -1758,7 +1757,7 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="18">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -1795,7 +1794,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
-      <c r="A12" s="41"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>3</v>
@@ -1826,7 +1825,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="23" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -1857,31 +1856,31 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" thickBot="1">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="34">
         <f>(E13/E12)^(1/((D13-D12)/365))-1</f>
         <v>2.3944888149245003E-2</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31">
+      <c r="E14" s="35"/>
+      <c r="F14" s="34">
         <f>(G13/G12)^(1/((F13-F12)/365))-1</f>
         <v>9.141159352500372E-3</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="31">
+      <c r="G14" s="35"/>
+      <c r="H14" s="34">
         <f>(I13/I12)^(1/((H13-H12)/365))-1</f>
         <v>6.6946593445611491E-3</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="31">
+      <c r="I14" s="35"/>
+      <c r="J14" s="34">
         <f>(K13/K12)^(1/((J13-J12)/365))-1</f>
         <v>-2.0896500860444145E-2</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:13" ht="23">
       <c r="A15" s="9"/>
@@ -1891,7 +1890,7 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="18">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -1935,7 +1934,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="18">
-      <c r="A17" s="41"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
         <v>3</v>
@@ -1972,7 +1971,7 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="41"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -2009,36 +2008,36 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="23" customHeight="1" thickBot="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="34">
         <f>(E18/E17)^(1/((D18-D17)/365))-1</f>
         <v>2.3376576781710012E-2</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31">
+      <c r="E19" s="35"/>
+      <c r="F19" s="34">
         <f>(G18/G17)^(1/((F18-F17)/365))-1</f>
         <v>3.0087312837759006E-2</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31">
+      <c r="G19" s="35"/>
+      <c r="H19" s="34">
         <f>(I18/I17)^(1/((H18-H17)/365))-1</f>
         <v>1.5148650279172449E-2</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31">
+      <c r="I19" s="35"/>
+      <c r="J19" s="34">
         <f>(K18/K17)^(1/((J18-J17)/365))-1</f>
         <v>8.252461098143149E-3</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31">
+      <c r="K19" s="35"/>
+      <c r="L19" s="34">
         <f>(M18/M17)^(1/((L18-L17)/365))-1</f>
         <v>-3.5883355425108898E-2</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" ht="23">
       <c r="A20" s="9"/>
@@ -2048,10 +2047,10 @@
       <c r="E20" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="18">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="46" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="8"/>
@@ -2078,8 +2077,8 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="41"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2103,8 +2102,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="23" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2128,29 +2127,29 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="24" thickBot="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="34">
         <f>(E24/E23)^(1/((D24-D23)/365))-1</f>
         <v>1.5531322506834089E-2</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="31">
+      <c r="E25" s="35"/>
+      <c r="F25" s="34">
         <f>(G24/G23)^(1/((F24-F23)/365))-1</f>
         <v>1.7143739028393723E-2</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="31">
+      <c r="G25" s="35"/>
+      <c r="H25" s="34">
         <f>(I24/I23)^(1/((H24-H23)/365))-1</f>
         <v>2.093070514123152E-2</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="18">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="10"/>
@@ -2178,7 +2177,7 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="41"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
         <v>3</v>
@@ -2203,7 +2202,7 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -2228,32 +2227,32 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="24" thickBot="1">
-      <c r="A30" s="42"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="34">
         <f>(E29/E28)^(1/((D29-D28)/365))-1</f>
         <v>5.7715015246848633E-3</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="31">
+      <c r="E30" s="35"/>
+      <c r="F30" s="34">
         <f>(G29/G28)^(1/((F29-F28)/365))-1</f>
         <v>3.4198262292839399E-3</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="31">
+      <c r="G30" s="35"/>
+      <c r="H30" s="34">
         <f>(I29/I28)^(1/((H29-H28)/365))-1</f>
         <v>-2.1688355021687311E-3</v>
       </c>
-      <c r="I30" s="32"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="18">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="46" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="8"/>
@@ -2287,8 +2286,8 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="41"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,8 +2317,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="23" customHeight="1">
-      <c r="A34" s="41"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2349,37 +2348,37 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="24" thickBot="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="34">
         <f>(E34/E33)^(1/((D34-D33)/365))-1</f>
         <v>3.7860182208745652E-2</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31">
+      <c r="E35" s="35"/>
+      <c r="F35" s="34">
         <f>(G34/G33)^(1/((F34-F33)/365))-1</f>
         <v>3.2913827842230736E-2</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="31">
+      <c r="G35" s="35"/>
+      <c r="H35" s="34">
         <f>(I34/I33)^(1/((H34-H33)/365))-1</f>
         <v>1.5791186172652516E-2</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="31">
+      <c r="I35" s="35"/>
+      <c r="J35" s="34">
         <f>(K34/K33)^(1/((J34-J33)/365))-1</f>
         <v>1.7035775127768105E-2</v>
       </c>
-      <c r="K35" s="32"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="8"/>
@@ -2399,8 +2398,8 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="41"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2417,8 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="41"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2437,24 +2436,24 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="24" thickBot="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="34">
         <f>(E39/E38)^(1/((D39-D38)/365))-1</f>
         <v>1.3724234186924145E-2</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="31">
+      <c r="E40" s="35"/>
+      <c r="F40" s="34">
         <f>(G39/G38)^(1/((F39-F38)/365))-1</f>
         <v>1.5602836879432536E-2</v>
       </c>
-      <c r="G40" s="32"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="42" spans="1:13" ht="18">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -2498,7 +2497,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="47"/>
+      <c r="A43" s="50"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3" t="s">
         <v>3</v>
@@ -2535,7 +2534,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="47"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3" t="s">
         <v>4</v>
@@ -2572,39 +2571,39 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="24" thickBot="1">
-      <c r="A45" s="48"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="34">
         <f>(E44/E43)^(1/((D44-D43)/365))-1</f>
         <v>0.11211710931213292</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="39">
+      <c r="E45" s="35"/>
+      <c r="F45" s="42">
         <f>(G44/G43)^(1/((F44-F43)/365))-1</f>
         <v>8.0521701551103719E-2</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="39">
+      <c r="G45" s="35"/>
+      <c r="H45" s="42">
         <f>(I44/I43)^(1/((H44-H43)/365))-1</f>
         <v>4.2352168232818066E-2</v>
       </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="39">
+      <c r="I45" s="35"/>
+      <c r="J45" s="42">
         <f>(K44/K43)^(1/((J44-J43)/365))-1</f>
         <v>3.4162011121695368E-2</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="39">
+      <c r="K45" s="35"/>
+      <c r="L45" s="42">
         <f>(M44/M43)^(1/((L44-L43)/365))-1</f>
         <v>-2.114164904862581E-2</v>
       </c>
-      <c r="M45" s="32"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="47" spans="1:13" ht="18">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -2648,7 +2647,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="41"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="1" t="s">
         <v>23</v>
       </c>
@@ -2687,7 +2686,7 @@
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="41"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3" t="s">
         <v>4</v>
@@ -2724,39 +2723,39 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="24" thickBot="1">
-      <c r="A50" s="42"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="34">
         <f>(E49/E48)^(1/((D49-D48)/365))-1</f>
         <v>0.11163632544516733</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31">
+      <c r="E50" s="35"/>
+      <c r="F50" s="34">
         <f>(G49/G48)^(1/((F49-F48)/365))-1</f>
         <v>7.298220911292197E-2</v>
       </c>
-      <c r="G50" s="32"/>
-      <c r="H50" s="31">
+      <c r="G50" s="35"/>
+      <c r="H50" s="34">
         <f>(I49/I48)^(1/((H49-H48)/365))-1</f>
         <v>3.3610755605151477E-2</v>
       </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="31">
+      <c r="I50" s="35"/>
+      <c r="J50" s="34">
         <f>(K49/K48)^(1/((J49-J48)/365))-1</f>
         <v>3.1391374117271331E-2</v>
       </c>
-      <c r="K50" s="32"/>
-      <c r="L50" s="31">
+      <c r="K50" s="35"/>
+      <c r="L50" s="34">
         <f>(M49/M48)^(1/((L49-L48)/365))-1</f>
         <v>-2.2159479808350313E-2</v>
       </c>
-      <c r="M50" s="32"/>
+      <c r="M50" s="35"/>
     </row>
     <row r="52" spans="1:15" ht="18">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="36" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -2807,7 +2806,7 @@
       </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="34"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
@@ -2852,7 +2851,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="34"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
         <v>4</v>
@@ -2895,44 +2894,44 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="24" thickBot="1">
-      <c r="A55" s="35"/>
+      <c r="A55" s="38"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="34">
         <f>(E54/E53)^(1/((D54-D53)/365))-1</f>
         <v>8.1821576127553586E-2</v>
       </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31">
+      <c r="E55" s="35"/>
+      <c r="F55" s="34">
         <f>(G54/G53)^(1/((F54-F53)/365))-1</f>
         <v>0.11397659798315796</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="31">
+      <c r="G55" s="35"/>
+      <c r="H55" s="34">
         <f>(I54/I53)^(1/((H54-H53)/365))-1</f>
         <v>0.10698717922181467</v>
       </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="31">
+      <c r="I55" s="35"/>
+      <c r="J55" s="34">
         <f>(K54/K53)^(1/((J54-J53)/365))-1</f>
         <v>0.14485844453802121</v>
       </c>
-      <c r="K55" s="32"/>
-      <c r="L55" s="31">
+      <c r="K55" s="35"/>
+      <c r="L55" s="34">
         <f>(M54/M53)^(1/((L54-L53)/365))-1</f>
         <v>0.12583780760091456</v>
       </c>
-      <c r="M55" s="32"/>
-      <c r="N55" s="31">
+      <c r="M55" s="35"/>
+      <c r="N55" s="34">
         <f>(O54/O53)^(1/((N54-N53)/365))-1</f>
         <v>0.16607758983421705</v>
       </c>
-      <c r="O55" s="32"/>
+      <c r="O55" s="35"/>
     </row>
     <row r="57" spans="1:15" ht="18">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -2983,7 +2982,7 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="34"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="1" t="s">
         <v>27</v>
       </c>
@@ -3028,7 +3027,7 @@
       </c>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="34"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
         <v>4</v>
@@ -3071,44 +3070,44 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="24" thickBot="1">
-      <c r="A60" s="35"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="34">
         <f>(E59/E58)^(1/((D59-D58)/365))-1</f>
         <v>6.4365565839712202E-2</v>
       </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31">
+      <c r="E60" s="35"/>
+      <c r="F60" s="34">
         <f>(G59/G58)^(1/((F59-F58)/365))-1</f>
         <v>0.11538971873685577</v>
       </c>
-      <c r="G60" s="32"/>
-      <c r="H60" s="31">
+      <c r="G60" s="35"/>
+      <c r="H60" s="34">
         <f>(I59/I58)^(1/((H59-H58)/365))-1</f>
         <v>0.10580236953644406</v>
       </c>
-      <c r="I60" s="32"/>
-      <c r="J60" s="31">
+      <c r="I60" s="35"/>
+      <c r="J60" s="34">
         <f>(K59/K58)^(1/((J59-J58)/365))-1</f>
         <v>0.14677875420227515</v>
       </c>
-      <c r="K60" s="32"/>
-      <c r="L60" s="31">
+      <c r="K60" s="35"/>
+      <c r="L60" s="34">
         <f>(M59/M58)^(1/((L59-L58)/365))-1</f>
         <v>0.12571889814124648</v>
       </c>
-      <c r="M60" s="32"/>
-      <c r="N60" s="31">
+      <c r="M60" s="35"/>
+      <c r="N60" s="34">
         <f>(O59/O58)^(1/((N59-N58)/365))-1</f>
         <v>0.16562707917498343</v>
       </c>
-      <c r="O60" s="32"/>
+      <c r="O60" s="35"/>
     </row>
     <row r="62" spans="1:15" ht="18">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -3145,7 +3144,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="34"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="1" t="s">
         <v>29</v>
       </c>
@@ -3178,7 +3177,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="34"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
         <v>4</v>
@@ -3209,34 +3208,34 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="24" thickBot="1">
-      <c r="A65" s="35"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="34">
         <f>(E64/E63)^(1/((D64-D63)/365))-1</f>
         <v>0.18938043875777533</v>
       </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31">
+      <c r="E65" s="35"/>
+      <c r="F65" s="34">
         <f>(G64/G63)^(1/((F64-F63)/365))-1</f>
         <v>0.21722869053684035</v>
       </c>
-      <c r="G65" s="32"/>
-      <c r="H65" s="31">
+      <c r="G65" s="35"/>
+      <c r="H65" s="34">
         <f>(I64/I63)^(1/((H64-H63)/365))-1</f>
         <v>0.19171397721545813</v>
       </c>
-      <c r="I65" s="32"/>
-      <c r="J65" s="31">
+      <c r="I65" s="35"/>
+      <c r="J65" s="34">
         <f>(K64/K63)^(1/((J64-J63)/365))-1</f>
         <v>0.28404556337517217</v>
       </c>
-      <c r="K65" s="32"/>
+      <c r="K65" s="35"/>
     </row>
     <row r="67" spans="1:13" ht="18">
-      <c r="A67" s="36">
+      <c r="A67" s="39">
         <v>50002</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -3280,7 +3279,7 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="37"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
         <v>3</v>
@@ -3317,7 +3316,7 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="37"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -3354,39 +3353,39 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="24" thickBot="1">
-      <c r="A70" s="38"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="34">
         <f>(E69/E68)^(1/((D69-D68)/365))-1</f>
         <v>8.8851511738710309E-2</v>
       </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="31">
+      <c r="E70" s="35"/>
+      <c r="F70" s="34">
         <f>(G69/G68)^(1/((F69-F68)/365))-1</f>
         <v>1.9900138901991937E-2</v>
       </c>
-      <c r="G70" s="32"/>
-      <c r="H70" s="31">
+      <c r="G70" s="35"/>
+      <c r="H70" s="34">
         <f>(I69/I68)^(1/((H69-H68)/365))-1</f>
         <v>5.1680000301096873E-2</v>
       </c>
-      <c r="I70" s="32"/>
-      <c r="J70" s="31">
+      <c r="I70" s="35"/>
+      <c r="J70" s="34">
         <f>(K69/K68)^(1/((J69-J68)/365))-1</f>
         <v>-9.5260379684403151E-3</v>
       </c>
-      <c r="K70" s="32"/>
-      <c r="L70" s="31">
+      <c r="K70" s="35"/>
+      <c r="L70" s="34">
         <f>(M69/M68)^(1/((L69-L68)/365))-1</f>
         <v>4.0644295807592767E-2</v>
       </c>
-      <c r="M70" s="32"/>
+      <c r="M70" s="35"/>
     </row>
     <row r="72" spans="1:13" ht="18">
-      <c r="A72" s="33">
+      <c r="A72" s="36">
         <v>513500</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -3416,7 +3415,7 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="34"/>
+      <c r="A73" s="37"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
         <v>3</v>
@@ -3441,7 +3440,7 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="34"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
         <v>4</v>
@@ -3466,29 +3465,29 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="24" thickBot="1">
-      <c r="A75" s="35"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="34">
         <f>(E74/E73)^(1/((D74-D73)/365))-1</f>
         <v>0.11760462425022467</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="31">
+      <c r="E75" s="35"/>
+      <c r="F75" s="34">
         <f>(G74/G73)^(1/((F74-F73)/365))-1</f>
         <v>0.12231415080073815</v>
       </c>
-      <c r="G75" s="32"/>
-      <c r="H75" s="31">
+      <c r="G75" s="35"/>
+      <c r="H75" s="34">
         <f>(I74/I73)^(1/((H74-H73)/365))-1</f>
         <v>7.7833977110505215E-2</v>
       </c>
-      <c r="I75" s="32"/>
+      <c r="I75" s="35"/>
     </row>
     <row r="77" spans="1:13" ht="18">
-      <c r="A77" s="33">
+      <c r="A77" s="36">
         <v>513100</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -3518,7 +3517,7 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="34"/>
+      <c r="A78" s="37"/>
       <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
         <v>3</v>
@@ -3543,7 +3542,7 @@
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="34"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="1"/>
       <c r="C79" s="3" t="s">
         <v>4</v>
@@ -3568,29 +3567,29 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="24" thickBot="1">
-      <c r="A80" s="35"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D80" s="34">
         <f>(E79/E78)^(1/((D79-D78)/365))-1</f>
         <v>0.19018302552113719</v>
       </c>
-      <c r="E80" s="32"/>
-      <c r="F80" s="31">
+      <c r="E80" s="35"/>
+      <c r="F80" s="34">
         <f>(G79/G78)^(1/((F79-F78)/365))-1</f>
         <v>0.19111895483297237</v>
       </c>
-      <c r="G80" s="32"/>
-      <c r="H80" s="31">
+      <c r="G80" s="35"/>
+      <c r="H80" s="34">
         <f>(I79/I78)^(1/((H79-H78)/365))-1</f>
         <v>0.19540747574311768</v>
       </c>
-      <c r="I80" s="32"/>
+      <c r="I80" s="35"/>
     </row>
     <row r="82" spans="1:13" ht="18">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -3634,7 +3633,7 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="29"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
@@ -3673,7 +3672,7 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="29"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
         <v>4</v>
@@ -3710,39 +3709,39 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="24" thickBot="1">
-      <c r="A85" s="30"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D85" s="34">
         <f>(E84/E83)^(1/((D84-D83)/365))-1</f>
         <v>0.59628979168389762</v>
       </c>
-      <c r="E85" s="32"/>
-      <c r="F85" s="31">
+      <c r="E85" s="35"/>
+      <c r="F85" s="34">
         <f>(G84/G83)^(1/((F84-F83)/365))-1</f>
         <v>0.29828623507555485</v>
       </c>
-      <c r="G85" s="32"/>
-      <c r="H85" s="31">
+      <c r="G85" s="35"/>
+      <c r="H85" s="34">
         <f>(I84/I83)^(1/((H84-H83)/365))-1</f>
         <v>0.30685078848236658</v>
       </c>
-      <c r="I85" s="32"/>
-      <c r="J85" s="31">
+      <c r="I85" s="35"/>
+      <c r="J85" s="34">
         <f>(K84/K83)^(1/((J84-J83)/365))-1</f>
         <v>0.16354379707987698</v>
       </c>
-      <c r="K85" s="32"/>
-      <c r="L85" s="31">
+      <c r="K85" s="35"/>
+      <c r="L85" s="34">
         <f>(M84/M83)^(1/((L84-L83)/365))-1</f>
         <v>0.33295687160302134</v>
       </c>
-      <c r="M85" s="32"/>
+      <c r="M85" s="35"/>
     </row>
     <row r="87" spans="1:13" ht="18">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -3786,7 +3785,7 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="29"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="1" t="s">
         <v>2</v>
       </c>
@@ -3825,7 +3824,7 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="29"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -3862,39 +3861,39 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="24" thickBot="1">
-      <c r="A90" s="30"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="31">
+      <c r="D90" s="34">
         <f>(E89/E88)^(1/((D89-D88)/365))-1</f>
         <v>0.15500268875045298</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="31">
+      <c r="E90" s="35"/>
+      <c r="F90" s="34">
         <f>(G89/G88)^(1/((F89-F88)/365))-1</f>
         <v>0.15046173074692559</v>
       </c>
-      <c r="G90" s="32"/>
-      <c r="H90" s="31">
+      <c r="G90" s="35"/>
+      <c r="H90" s="34">
         <f>(I89/I88)^(1/((H89-H88)/365))-1</f>
         <v>0.21433998564767487</v>
       </c>
-      <c r="I90" s="32"/>
-      <c r="J90" s="31">
+      <c r="I90" s="35"/>
+      <c r="J90" s="34">
         <f>(K89/K88)^(1/((J89-J88)/365))-1</f>
         <v>0.29744338957285077</v>
       </c>
-      <c r="K90" s="32"/>
-      <c r="L90" s="31">
+      <c r="K90" s="35"/>
+      <c r="L90" s="34">
         <f>(M89/M88)^(1/((L89-L88)/365))-1</f>
         <v>0.22280353599134051</v>
       </c>
-      <c r="M90" s="32"/>
+      <c r="M90" s="35"/>
     </row>
     <row r="92" spans="1:13" ht="18">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -3931,7 +3930,7 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="29"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="1"/>
       <c r="C93" s="3" t="s">
         <v>3</v>
@@ -3962,7 +3961,7 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="29"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
         <v>4</v>
@@ -3993,34 +3992,34 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="24" thickBot="1">
-      <c r="A95" s="30"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="31">
+      <c r="D95" s="34">
         <f>(E94/E93)^(1/((D94-D93)/365))-1</f>
         <v>0.30830128409489843</v>
       </c>
-      <c r="E95" s="32"/>
-      <c r="F95" s="31">
+      <c r="E95" s="35"/>
+      <c r="F95" s="34">
         <f>(G94/G93)^(1/((F94-F93)/365))-1</f>
         <v>0.52577637120142962</v>
       </c>
-      <c r="G95" s="32"/>
-      <c r="H95" s="31">
+      <c r="G95" s="35"/>
+      <c r="H95" s="34">
         <f>(I94/I93)^(1/((H94-H93)/365))-1</f>
         <v>0.34342982251516263</v>
       </c>
-      <c r="I95" s="32"/>
-      <c r="J95" s="31">
+      <c r="I95" s="35"/>
+      <c r="J95" s="34">
         <f>(K94/K93)^(1/((J94-J93)/365))-1</f>
         <v>0.30740987983978618</v>
       </c>
-      <c r="K95" s="32"/>
+      <c r="K95" s="35"/>
     </row>
     <row r="97" spans="1:13" ht="18">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -4050,7 +4049,7 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="29"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="1"/>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -4075,7 +4074,7 @@
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="29"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -4100,29 +4099,29 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="24" thickBot="1">
-      <c r="A100" s="30"/>
+      <c r="A100" s="33"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="31">
+      <c r="D100" s="34">
         <f>(E99/E98)^(1/((D99-D98)/365))-1</f>
         <v>0.23700504663239474</v>
       </c>
-      <c r="E100" s="32"/>
-      <c r="F100" s="31">
+      <c r="E100" s="35"/>
+      <c r="F100" s="34">
         <f>(G99/G98)^(1/((F99-F98)/365))-1</f>
         <v>0.34133307224348353</v>
       </c>
-      <c r="G100" s="32"/>
-      <c r="H100" s="31">
+      <c r="G100" s="35"/>
+      <c r="H100" s="34">
         <f>(I99/I98)^(1/((H99-H98)/365))-1</f>
         <v>0.53982824992596967</v>
       </c>
-      <c r="I100" s="32"/>
+      <c r="I100" s="35"/>
     </row>
     <row r="102" spans="1:13" ht="18">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -4166,7 +4165,7 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="29"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
         <v>3</v>
@@ -4203,7 +4202,7 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="29"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="1"/>
       <c r="C104" s="3" t="s">
         <v>4</v>
@@ -4240,39 +4239,39 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="24" thickBot="1">
-      <c r="A105" s="30"/>
+      <c r="A105" s="33"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="31">
+      <c r="D105" s="34">
         <f>(E104/E103)^(1/((D104-D103)/365))-1</f>
         <v>0.40165530607432598</v>
       </c>
-      <c r="E105" s="32"/>
-      <c r="F105" s="31">
+      <c r="E105" s="35"/>
+      <c r="F105" s="34">
         <f>(G104/G103)^(1/((F104-F103)/365))-1</f>
         <v>0.35381356105242645</v>
       </c>
-      <c r="G105" s="32"/>
-      <c r="H105" s="31">
+      <c r="G105" s="35"/>
+      <c r="H105" s="34">
         <f>(I104/I103)^(1/((H104-H103)/365))-1</f>
         <v>0.44271501348530085</v>
       </c>
-      <c r="I105" s="32"/>
-      <c r="J105" s="31">
+      <c r="I105" s="35"/>
+      <c r="J105" s="34">
         <f>(K104/K103)^(1/((J104-J103)/365))-1</f>
         <v>0.59334284842839025</v>
       </c>
-      <c r="K105" s="32"/>
-      <c r="L105" s="31">
+      <c r="K105" s="35"/>
+      <c r="L105" s="34">
         <f>(M104/M103)^(1/((L104-L103)/365))-1</f>
         <v>0.7797380130060052</v>
       </c>
-      <c r="M105" s="32"/>
+      <c r="M105" s="35"/>
     </row>
     <row r="107" spans="1:13" ht="18">
-      <c r="A107" s="28">
+      <c r="A107" s="31">
         <v>700</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -4309,7 +4308,7 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="29"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="1" t="s">
         <v>44</v>
       </c>
@@ -4342,7 +4341,7 @@
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="29"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="1"/>
       <c r="C109" s="3" t="s">
         <v>4</v>
@@ -4373,34 +4372,34 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="24" thickBot="1">
-      <c r="A110" s="30"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="31">
+      <c r="D110" s="34">
         <f>(E109/E108)^(1/((D109-D108)/365))-1</f>
         <v>0.4738181333406295</v>
       </c>
-      <c r="E110" s="32"/>
-      <c r="F110" s="31">
+      <c r="E110" s="35"/>
+      <c r="F110" s="34">
         <f>(G109/G108)^(1/((F109-F108)/365))-1</f>
         <v>0.48500731443762635</v>
       </c>
-      <c r="G110" s="32"/>
-      <c r="H110" s="31">
+      <c r="G110" s="35"/>
+      <c r="H110" s="34">
         <f>(I109/I108)^(1/((H109-H108)/365))-1</f>
         <v>0.38784376850528601</v>
       </c>
-      <c r="I110" s="32"/>
-      <c r="J110" s="31">
+      <c r="I110" s="35"/>
+      <c r="J110" s="34">
         <f>(K109/K108)^(1/((J109-J108)/365))-1</f>
         <v>0.50668822578274297</v>
       </c>
-      <c r="K110" s="32"/>
+      <c r="K110" s="35"/>
     </row>
     <row r="112" spans="1:13" ht="18">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -4444,7 +4443,7 @@
       </c>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="29"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4483,7 +4482,7 @@
       </c>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="29"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="1"/>
       <c r="C114" s="3" t="s">
         <v>4</v>
@@ -4520,36 +4519,36 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="24" thickBot="1">
-      <c r="A115" s="30"/>
+      <c r="A115" s="33"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="31">
+      <c r="D115" s="34">
         <f>(E114/E113)^(1/((D114-D113)/365))-1</f>
         <v>0.39781814728603404</v>
       </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="31">
+      <c r="E115" s="35"/>
+      <c r="F115" s="34">
         <f>(G114/G113)^(1/((F114-F113)/365))-1</f>
         <v>0.37041183565309832</v>
       </c>
-      <c r="G115" s="32"/>
-      <c r="H115" s="31">
+      <c r="G115" s="35"/>
+      <c r="H115" s="34">
         <f>(I114/I113)^(1/((H114-H113)/365))-1</f>
         <v>0.38658098669151819</v>
       </c>
-      <c r="I115" s="32"/>
-      <c r="J115" s="31">
+      <c r="I115" s="35"/>
+      <c r="J115" s="34">
         <f>(K114/K113)^(1/((J114-J113)/365))-1</f>
         <v>0.22071828888857414</v>
       </c>
-      <c r="K115" s="32"/>
-      <c r="L115" s="31">
+      <c r="K115" s="35"/>
+      <c r="L115" s="34">
         <f>(M114/M113)^(1/((L114-L113)/365))-1</f>
         <v>-0.12267657992565051</v>
       </c>
-      <c r="M115" s="32"/>
+      <c r="M115" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="123">
@@ -4908,50 +4907,50 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="23">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="E15" s="50" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="E15" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="R15" s="50" t="s">
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="R15" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
       <c r="W15" s="27"/>
-      <c r="X15" s="50" t="s">
+      <c r="X15" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AD15" s="50" t="s">
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AD15" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
@@ -5628,11 +5627,11 @@
       </c>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="E24">
         <v>2011</v>
       </c>
@@ -5988,11 +5987,11 @@
       </c>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
       <c r="E28">
         <v>2007</v>
       </c>
@@ -6964,20 +6963,20 @@
       <c r="AI40" s="24"/>
     </row>
     <row r="41" spans="1:35">
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="K41" s="49" t="s">
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="K41" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
       <c r="R41">
         <v>1994</v>
       </c>
@@ -7028,27 +7027,27 @@
         <f>VLOOKUP(L42, K17:L40, 2, FALSE)</f>
         <v>4484</v>
       </c>
-      <c r="R42" s="49" t="s">
+      <c r="R42" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="S42" s="49"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="49"/>
-      <c r="V42" s="49"/>
-      <c r="X42" s="49" t="s">
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="X42" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
-      <c r="AD42" s="49" t="s">
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AD42" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="AE42" s="49"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52"/>
     </row>
     <row r="43" spans="1:35">
       <c r="E43" t="s">
@@ -7149,20 +7148,20 @@
       </c>
     </row>
     <row r="45" spans="1:35">
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="K45" s="49" t="s">
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="K45" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
       <c r="R45" t="s">
         <v>51</v>
       </c>
@@ -7206,27 +7205,27 @@
         <f>VLOOKUP(L46, K17:L40, 2, FALSE)</f>
         <v>50803</v>
       </c>
-      <c r="R46" s="49" t="s">
+      <c r="R46" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="X46" s="49" t="s">
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="X46" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AD46" s="49" t="s">
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AD46" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="49"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52"/>
     </row>
     <row r="47" spans="1:35">
       <c r="E47" t="s">
@@ -7525,47 +7524,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4C8CD5-CEF3-2942-8242-37F9A518E589}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:S18"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:24" ht="23">
+      <c r="A1" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="K1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="K1" s="50" t="s">
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="P1" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="P1" s="50" t="s">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="U1" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -7614,977 +7632,1286 @@
       <c r="S2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="51">
+      <c r="U2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="29">
         <v>34157</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="30">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="29">
         <v>34157</v>
       </c>
-      <c r="H3" s="52">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="K3" s="51">
+      <c r="H3" s="30">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="K3" s="29">
         <v>34157</v>
       </c>
-      <c r="M3" s="52">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="P3" s="51">
+      <c r="M3" s="30">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="P3" s="29">
         <v>34157</v>
       </c>
-      <c r="R3" s="52">
-        <v>4.9099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="51">
+      <c r="R3" s="30">
+        <v>0.12330000000000001</v>
+      </c>
+      <c r="U3" s="29">
+        <v>34157</v>
+      </c>
+      <c r="W3" s="30">
+        <v>2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="29">
         <v>34337</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="30">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="29">
         <v>34337</v>
       </c>
-      <c r="H4" s="52">
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="K4" s="51">
+      <c r="H4" s="30">
+        <v>0.1246</v>
+      </c>
+      <c r="K4" s="29">
         <v>34337</v>
       </c>
-      <c r="M4" s="52">
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="P4" s="51">
+      <c r="M4" s="30">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="P4" s="29">
         <v>34337</v>
       </c>
-      <c r="R4" s="52">
-        <v>4.9599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="51">
+      <c r="R4" s="30">
+        <v>0.1361</v>
+      </c>
+      <c r="U4" s="29">
+        <v>34337</v>
+      </c>
+      <c r="W4" s="30">
+        <v>3.4599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="29">
         <v>34702</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="30">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="29">
         <v>34702</v>
       </c>
-      <c r="H5" s="52">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="K5" s="51">
+      <c r="H5" s="30">
+        <v>0.1452</v>
+      </c>
+      <c r="K5" s="29">
         <v>34702</v>
       </c>
-      <c r="M5" s="52">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="P5" s="51">
+      <c r="M5" s="30">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="P5" s="29">
         <v>34702</v>
       </c>
-      <c r="R5" s="52">
-        <v>4.8099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="51">
+      <c r="R5" s="30">
+        <v>0.1283</v>
+      </c>
+      <c r="U5" s="29">
+        <v>34702</v>
+      </c>
+      <c r="W5" s="30">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="29">
         <v>35066</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="30">
         <v>4.7E-2</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="29">
         <v>35066</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="30">
+        <v>0.1522</v>
+      </c>
+      <c r="K6" s="29">
+        <v>35066</v>
+      </c>
+      <c r="M6" s="30">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="P6" s="29">
+        <v>35066</v>
+      </c>
+      <c r="R6" s="30">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="U6" s="29">
+        <v>35066</v>
+      </c>
+      <c r="W6" s="30">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="29">
+        <v>35432</v>
+      </c>
+      <c r="C7" s="30">
+        <v>4.65E-2</v>
+      </c>
+      <c r="F7" s="29">
+        <v>35432</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0.1188</v>
+      </c>
+      <c r="K7" s="29">
+        <v>35432</v>
+      </c>
+      <c r="M7" s="30">
+        <v>0.1095</v>
+      </c>
+      <c r="P7" s="29">
+        <v>35432</v>
+      </c>
+      <c r="R7" s="30">
+        <v>5.3E-3</v>
+      </c>
+      <c r="U7" s="29">
+        <v>35432</v>
+      </c>
+      <c r="W7" s="30">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="29">
+        <v>35797</v>
+      </c>
+      <c r="C8" s="30">
         <v>4.7E-2</v>
       </c>
-      <c r="K6" s="51">
-        <v>35066</v>
-      </c>
-      <c r="M6" s="52">
+      <c r="F8" s="29">
+        <v>35797</v>
+      </c>
+      <c r="H8" s="30">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="K8" s="29">
+        <v>35797</v>
+      </c>
+      <c r="M8" s="30">
+        <v>2.29E-2</v>
+      </c>
+      <c r="P8" s="29">
+        <v>35797</v>
+      </c>
+      <c r="R8" s="30">
+        <v>-3.9100000000000003E-2</v>
+      </c>
+      <c r="U8" s="29">
+        <v>35797</v>
+      </c>
+      <c r="W8" s="30">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="29">
+        <v>36164</v>
+      </c>
+      <c r="C9" s="30">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="D9" s="30">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29">
+        <v>36164</v>
+      </c>
+      <c r="H9" s="30">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="I9" s="30">
+        <v>-5.5199999999999999E-2</v>
+      </c>
+      <c r="K9" s="29">
+        <v>36164</v>
+      </c>
+      <c r="M9" s="30">
+        <v>-4.19E-2</v>
+      </c>
+      <c r="N9" s="30">
+        <v>-0.1208</v>
+      </c>
+      <c r="P9" s="29">
+        <v>36164</v>
+      </c>
+      <c r="R9" s="30">
+        <v>-7.4000000000000003E-3</v>
+      </c>
+      <c r="S9" s="30">
+        <v>-2.4799999999999999E-2</v>
+      </c>
+      <c r="U9" s="29">
+        <v>36164</v>
+      </c>
+      <c r="W9" s="30">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="X9" s="30">
+        <v>-3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="29">
+        <v>36528</v>
+      </c>
+      <c r="C10" s="30">
+        <v>5.04E-2</v>
+      </c>
+      <c r="D10" s="30">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="29">
+        <v>36528</v>
+      </c>
+      <c r="H10" s="30">
+        <v>-6.4100000000000004E-2</v>
+      </c>
+      <c r="I10" s="30">
+        <v>-0.17460000000000001</v>
+      </c>
+      <c r="K10" s="29">
+        <v>36528</v>
+      </c>
+      <c r="M10" s="30">
+        <v>-6.88E-2</v>
+      </c>
+      <c r="N10" s="30">
+        <v>-0.1318</v>
+      </c>
+      <c r="P10" s="29">
+        <v>36528</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="S10" s="30">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="U10" s="29">
+        <v>36528</v>
+      </c>
+      <c r="W10" s="30">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="X10" s="30">
+        <v>1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="29">
+        <v>36893</v>
+      </c>
+      <c r="C11" s="30">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29">
+        <v>36893</v>
+      </c>
+      <c r="H11" s="30">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="I11" s="30">
+        <v>-9.1300000000000006E-2</v>
+      </c>
+      <c r="K11" s="29">
+        <v>36893</v>
+      </c>
+      <c r="M11" s="30">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="N11" s="30">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="P11" s="29">
+        <v>36893</v>
+      </c>
+      <c r="R11" s="30">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="S11" s="30">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="U11" s="29">
+        <v>36893</v>
+      </c>
+      <c r="W11" s="30">
+        <v>1.66E-2</v>
+      </c>
+      <c r="X11" s="30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="29">
+        <v>37258</v>
+      </c>
+      <c r="B12" s="30">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="C12" s="30">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="D12" s="30">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="29">
+        <v>37258</v>
+      </c>
+      <c r="G12" s="30">
+        <v>-2.6599999999999999E-2</v>
+      </c>
+      <c r="H12" s="30">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="K12" s="29">
+        <v>37258</v>
+      </c>
+      <c r="L12" s="30">
+        <v>-4.3900000000000002E-2</v>
+      </c>
+      <c r="M12" s="30">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N12" s="30">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="P12" s="29">
+        <v>37258</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="R12" s="30">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="S12" s="30">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="U12" s="29">
+        <v>37258</v>
+      </c>
+      <c r="V12" s="30">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="W12" s="30">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="X12" s="30">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="29">
+        <v>37623</v>
+      </c>
+      <c r="B13" s="30">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C13" s="30">
+        <v>5.67E-2</v>
+      </c>
+      <c r="D13" s="30">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="29">
+        <v>37623</v>
+      </c>
+      <c r="G13" s="30">
+        <v>-5.2900000000000003E-2</v>
+      </c>
+      <c r="H13" s="30">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="K13" s="29">
+        <v>37623</v>
+      </c>
+      <c r="L13" s="30">
+        <v>-6.7599999999999993E-2</v>
+      </c>
+      <c r="M13" s="30">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="N13" s="30">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="P13" s="29">
+        <v>37623</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="R13" s="30">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="S13" s="30">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="U13" s="29">
+        <v>37623</v>
+      </c>
+      <c r="V13" s="30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="W13" s="30">
+        <v>2.92E-2</v>
+      </c>
+      <c r="X13" s="30">
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="29">
+        <v>37988</v>
+      </c>
+      <c r="B14" s="30">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="C14" s="30">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D14" s="30">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="29">
+        <v>37988</v>
+      </c>
+      <c r="G14" s="30">
+        <v>-7.8299999999999995E-2</v>
+      </c>
+      <c r="H14" s="30">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I14" s="30">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K14" s="29">
+        <v>37988</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="M14" s="30">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="N14" s="30">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="P14" s="29">
+        <v>37988</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="R14" s="30">
+        <v>-7.3300000000000004E-2</v>
+      </c>
+      <c r="S14" s="30">
+        <v>-7.6700000000000004E-2</v>
+      </c>
+      <c r="U14" s="29">
+        <v>37988</v>
+      </c>
+      <c r="V14" s="30">
+        <v>2.4E-2</v>
+      </c>
+      <c r="W14" s="30">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="X14" s="30">
+        <v>6.9900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="29">
+        <v>38355</v>
+      </c>
+      <c r="B15" s="30">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="C15" s="30">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0.09</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29">
+        <v>38355</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0.2792</v>
+      </c>
+      <c r="H15" s="30">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="I15" s="30">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="K15" s="29">
+        <v>38355</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="M15" s="30">
         <v>4.7E-2</v>
       </c>
-      <c r="P6" s="51">
-        <v>35066</v>
-      </c>
-      <c r="R6" s="52">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="51">
-        <v>35432</v>
-      </c>
-      <c r="C7" s="52">
-        <v>4.65E-2</v>
-      </c>
-      <c r="F7" s="51">
-        <v>35432</v>
-      </c>
-      <c r="H7" s="52">
-        <v>4.65E-2</v>
-      </c>
-      <c r="K7" s="51">
-        <v>35432</v>
-      </c>
-      <c r="M7" s="52">
-        <v>4.65E-2</v>
-      </c>
-      <c r="P7" s="51">
-        <v>35432</v>
-      </c>
-      <c r="R7" s="52">
-        <v>4.65E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="51">
-        <v>35797</v>
-      </c>
-      <c r="C8" s="52">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F8" s="51">
-        <v>35797</v>
-      </c>
-      <c r="H8" s="52">
-        <v>4.7E-2</v>
-      </c>
-      <c r="K8" s="51">
-        <v>35797</v>
-      </c>
-      <c r="M8" s="52">
-        <v>4.7E-2</v>
-      </c>
-      <c r="P8" s="51">
-        <v>35797</v>
-      </c>
-      <c r="R8" s="52">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="51">
-        <v>36164</v>
-      </c>
-      <c r="C9" s="52">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="D9" s="52">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="F9" s="51">
-        <v>36164</v>
-      </c>
-      <c r="H9" s="52">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="I9" s="52">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="K9" s="51">
-        <v>36164</v>
-      </c>
-      <c r="M9" s="52">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="N9" s="52">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="P9" s="51">
-        <v>36164</v>
-      </c>
-      <c r="R9" s="52">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="S9" s="52">
-        <v>6.9500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="51">
-        <v>36528</v>
-      </c>
-      <c r="C10" s="52">
-        <v>5.04E-2</v>
-      </c>
-      <c r="D10" s="52">
-        <v>7.3599999999999999E-2</v>
-      </c>
-      <c r="F10" s="51">
-        <v>36528</v>
-      </c>
-      <c r="H10" s="52">
-        <v>5.04E-2</v>
-      </c>
-      <c r="I10" s="52">
-        <v>7.3599999999999999E-2</v>
-      </c>
-      <c r="K10" s="51">
-        <v>36528</v>
-      </c>
-      <c r="M10" s="52">
-        <v>5.04E-2</v>
-      </c>
-      <c r="N10" s="52">
-        <v>7.3599999999999999E-2</v>
-      </c>
-      <c r="P10" s="51">
-        <v>36528</v>
-      </c>
-      <c r="R10" s="52">
-        <v>5.04E-2</v>
-      </c>
-      <c r="S10" s="52">
-        <v>7.3599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="51">
-        <v>36893</v>
-      </c>
-      <c r="C11" s="52">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="D11" s="52">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="F11" s="51">
-        <v>36893</v>
-      </c>
-      <c r="H11" s="52">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="I11" s="52">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="K11" s="51">
-        <v>36893</v>
-      </c>
-      <c r="M11" s="52">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="N11" s="52">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="P11" s="51">
-        <v>36893</v>
-      </c>
-      <c r="R11" s="52">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="S11" s="52">
-        <v>7.9399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="51">
-        <v>37258</v>
-      </c>
-      <c r="B12" s="52">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="C12" s="52">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="D12" s="52">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="F12" s="51">
-        <v>37258</v>
-      </c>
-      <c r="G12" s="52">
-        <v>-4.3900000000000002E-2</v>
-      </c>
-      <c r="H12" s="52">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="I12" s="52">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="K12" s="51">
-        <v>37258</v>
-      </c>
-      <c r="L12" s="52">
-        <v>8.6099999999999996E-2</v>
-      </c>
-      <c r="M12" s="52">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="N12" s="52">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="P12" s="51">
-        <v>37258</v>
-      </c>
-      <c r="Q12" s="52">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="R12" s="52">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="S12" s="52">
-        <v>8.3500000000000005E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="51">
-        <v>37623</v>
-      </c>
-      <c r="B13" s="52">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C13" s="52">
-        <v>5.67E-2</v>
-      </c>
-      <c r="D13" s="52">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="F13" s="51">
-        <v>37623</v>
-      </c>
-      <c r="G13" s="52">
-        <v>-6.7599999999999993E-2</v>
-      </c>
-      <c r="H13" s="52">
-        <v>5.67E-2</v>
-      </c>
-      <c r="I13" s="52">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="K13" s="51">
-        <v>37623</v>
-      </c>
-      <c r="L13" s="52">
-        <v>0.29880000000000001</v>
-      </c>
-      <c r="M13" s="52">
-        <v>5.67E-2</v>
-      </c>
-      <c r="N13" s="52">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="P13" s="51">
-        <v>37623</v>
-      </c>
-      <c r="Q13" s="52">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="R13" s="52">
-        <v>5.67E-2</v>
-      </c>
-      <c r="S13" s="52">
-        <v>8.5400000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="51">
-        <v>37988</v>
-      </c>
-      <c r="B14" s="52">
+      <c r="N15" s="30">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="P15" s="29">
+        <v>38355</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="R15" s="30">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="S15" s="30">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="U15" s="29">
+        <v>38355</v>
+      </c>
+      <c r="V15" s="30">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="C14" s="52">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="D14" s="52">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="F14" s="51">
-        <v>37988</v>
-      </c>
-      <c r="G14" s="52">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="H14" s="52">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="I14" s="52">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="K14" s="51">
-        <v>37988</v>
-      </c>
-      <c r="L14" s="52">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="M14" s="52">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="N14" s="52">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="P14" s="51">
-        <v>37988</v>
-      </c>
-      <c r="Q14" s="52">
-        <v>2.4E-2</v>
-      </c>
-      <c r="R14" s="52">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="S14" s="52">
-        <v>8.6900000000000005E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="51">
-        <v>38355</v>
-      </c>
-      <c r="B15" s="52">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="C15" s="52">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="D15" s="52">
-        <v>0.09</v>
-      </c>
-      <c r="F15" s="51">
-        <v>38355</v>
-      </c>
-      <c r="G15" s="52">
-        <v>0.51349999999999996</v>
-      </c>
-      <c r="H15" s="52">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="I15" s="52">
-        <v>0.09</v>
-      </c>
-      <c r="K15" s="51">
-        <v>38355</v>
-      </c>
-      <c r="L15" s="52">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="M15" s="52">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="N15" s="52">
-        <v>0.09</v>
-      </c>
-      <c r="P15" s="51">
-        <v>38355</v>
-      </c>
-      <c r="Q15" s="52">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="R15" s="52">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="S15" s="52">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="51">
+      <c r="W15" s="30">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="X15" s="30">
+        <v>8.43E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="29">
         <v>38720</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="30">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="30">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="30">
         <v>9.35E-2</v>
       </c>
-      <c r="F16" s="51">
+      <c r="E16" s="30"/>
+      <c r="F16" s="29">
         <v>38720</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="30">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="H16" s="30">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="I16" s="30">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="K16" s="29">
+        <v>38720</v>
+      </c>
+      <c r="L16" s="30">
         <v>-3.6900000000000002E-2</v>
       </c>
-      <c r="H16" s="52">
+      <c r="M16" s="30">
+        <v>-0.14050000000000001</v>
+      </c>
+      <c r="N16" s="30">
+        <v>-0.14319999999999999</v>
+      </c>
+      <c r="P16" s="29">
+        <v>38720</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="R16" s="30">
+        <v>1.43E-2</v>
+      </c>
+      <c r="S16" s="30">
+        <v>5.21E-2</v>
+      </c>
+      <c r="U16" s="29">
+        <v>38720</v>
+      </c>
+      <c r="V16" s="30">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="W16" s="30">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="X16" s="30">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="29">
+        <v>39085</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1.26E-2</v>
+      </c>
+      <c r="C17" s="30">
+        <v>6.54E-2</v>
+      </c>
+      <c r="D17" s="30">
+        <v>9.74E-2</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="29">
+        <v>39085</v>
+      </c>
+      <c r="G17" s="30">
+        <v>-0.23039999999999999</v>
+      </c>
+      <c r="H17" s="30">
+        <v>-0.21029999999999999</v>
+      </c>
+      <c r="I17" s="30">
+        <v>-0.21920000000000001</v>
+      </c>
+      <c r="K17" s="29">
+        <v>39085</v>
+      </c>
+      <c r="L17" s="30">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="M17" s="30">
+        <v>-5.3E-3</v>
+      </c>
+      <c r="N17" s="30">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="P17" s="29">
+        <v>39085</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>-2.9399999999999999E-2</v>
+      </c>
+      <c r="R17" s="30">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S17" s="30">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U17" s="29">
+        <v>39085</v>
+      </c>
+      <c r="V17" s="30">
+        <v>2.24E-2</v>
+      </c>
+      <c r="W17" s="30">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="X17" s="30">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="29">
+        <v>39449</v>
+      </c>
+      <c r="B18" s="30">
+        <v>1.52E-2</v>
+      </c>
+      <c r="C18" s="30">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0.1032</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="29">
+        <v>39449</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="H18" s="30">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="I18" s="30">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="K18" s="29">
+        <v>39449</v>
+      </c>
+      <c r="L18" s="30">
+        <v>2.87E-2</v>
+      </c>
+      <c r="M18" s="30">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="N18" s="30">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="P18" s="29">
+        <v>39449</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>-5.3900000000000003E-2</v>
+      </c>
+      <c r="R18" s="30">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="S18" s="30">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="U18" s="29">
+        <v>39449</v>
+      </c>
+      <c r="V18" s="30">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="W18" s="30">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="X18" s="30">
+        <v>9.98E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="29">
+        <v>39815</v>
+      </c>
+      <c r="B19" s="30">
+        <v>1.67E-2</v>
+      </c>
+      <c r="C19" s="30">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="D19" s="30">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="29">
+        <v>39815</v>
+      </c>
+      <c r="G19" s="30">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="H19" s="30">
+        <v>0.1027</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0.1552</v>
+      </c>
+      <c r="K19" s="29">
+        <v>39815</v>
+      </c>
+      <c r="L19" s="30">
+        <v>-3.8699999999999998E-2</v>
+      </c>
+      <c r="M19" s="30">
+        <v>5.79E-2</v>
+      </c>
+      <c r="N19" s="30">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="P19" s="29">
+        <v>39815</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="R19" s="30">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="S19" s="30">
+        <v>0.11210000000000001</v>
+      </c>
+      <c r="U19" s="29">
+        <v>39815</v>
+      </c>
+      <c r="V19" s="30"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="29">
+        <v>40182</v>
+      </c>
+      <c r="B20" s="30">
+        <v>1.77E-2</v>
+      </c>
+      <c r="C20" s="30">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="D20" s="30">
+        <v>0.1028</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29">
+        <v>40182</v>
+      </c>
+      <c r="G20" s="30">
+        <v>-7.3599999999999999E-2</v>
+      </c>
+      <c r="H20" s="30">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="I20" s="30">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="K20" s="29">
+        <v>40182</v>
+      </c>
+      <c r="L20" s="30">
+        <v>-8.72E-2</v>
+      </c>
+      <c r="M20" s="30">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="N20" s="30">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="P20" s="29">
+        <v>40182</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="R20" s="30">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="S20" s="30">
+        <v>0.1132</v>
+      </c>
+      <c r="U20" s="29">
+        <v>40182</v>
+      </c>
+      <c r="V20" s="30"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="29">
+        <v>40546</v>
+      </c>
+      <c r="B21" s="30">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="C21" s="30">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="29">
+        <v>40546</v>
+      </c>
+      <c r="G21" s="30">
+        <v>-0.10730000000000001</v>
+      </c>
+      <c r="H21" s="30">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="I21" s="30">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="K21" s="29">
+        <v>40546</v>
+      </c>
+      <c r="L21" s="30">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="M21" s="30">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="N21" s="30">
+        <v>0.1077</v>
+      </c>
+      <c r="P21" s="29">
+        <v>40546</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="R21" s="30">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="S21" s="30">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="U21" s="29">
+        <v>40546</v>
+      </c>
+      <c r="V21" s="30"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="29">
+        <v>40911</v>
+      </c>
+      <c r="B22" s="30">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="C22" s="30">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0.1022</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="29">
+        <v>40911</v>
+      </c>
+      <c r="G22" s="30">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0.1125</v>
+      </c>
+      <c r="I22" s="30">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="K22" s="29">
+        <v>40911</v>
+      </c>
+      <c r="L22" s="30">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="M22" s="30">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="N22" s="30">
+        <v>0.1244</v>
+      </c>
+      <c r="P22" s="29">
+        <v>40911</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="R22" s="30">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="S22" s="30">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="U22" s="29">
+        <v>40911</v>
+      </c>
+      <c r="V22" s="30"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="29">
+        <v>41276</v>
+      </c>
+      <c r="B23" s="30">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="C23" s="30">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="29">
+        <v>41276</v>
+      </c>
+      <c r="G23" s="30">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="H23" s="30">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="I23" s="30">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K23" s="29">
+        <v>41276</v>
+      </c>
+      <c r="L23" s="30">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="M23" s="30">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="N23" s="30">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="P23" s="29">
+        <v>41276</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="R23" s="30">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="S23" s="30">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="U23" s="29">
+        <v>41276</v>
+      </c>
+      <c r="V23" s="30"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="29">
+        <v>41641</v>
+      </c>
+      <c r="B24" s="30">
+        <v>1.43E-2</v>
+      </c>
+      <c r="C24" s="30">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="29">
+        <v>41641</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.1188</v>
+      </c>
+      <c r="H24" s="30">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="I24" s="30">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="K24" s="29">
+        <v>41641</v>
+      </c>
+      <c r="L24" s="30">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="I16" s="52">
-        <v>9.35E-2</v>
-      </c>
-      <c r="K16" s="51">
-        <v>38720</v>
-      </c>
-      <c r="L16" s="52">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="M16" s="52">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="N16" s="52">
-        <v>9.35E-2</v>
-      </c>
-      <c r="P16" s="51">
-        <v>38720</v>
-      </c>
-      <c r="Q16" s="52">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="R16" s="52">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="S16" s="52">
-        <v>9.35E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="51">
-        <v>39085</v>
-      </c>
-      <c r="B17" s="52">
-        <v>1.26E-2</v>
-      </c>
-      <c r="C17" s="52">
-        <v>6.54E-2</v>
-      </c>
-      <c r="D17" s="52">
-        <v>9.74E-2</v>
-      </c>
-      <c r="F17" s="51">
-        <v>39085</v>
-      </c>
-      <c r="G17" s="52">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="H17" s="52">
-        <v>6.54E-2</v>
-      </c>
-      <c r="I17" s="52">
-        <v>9.74E-2</v>
-      </c>
-      <c r="K17" s="51">
-        <v>39085</v>
-      </c>
-      <c r="L17" s="52">
-        <v>-2.9399999999999999E-2</v>
-      </c>
-      <c r="M17" s="52">
-        <v>6.54E-2</v>
-      </c>
-      <c r="N17" s="52">
-        <v>9.74E-2</v>
-      </c>
-      <c r="P17" s="51">
-        <v>39085</v>
-      </c>
-      <c r="Q17" s="52">
-        <v>2.24E-2</v>
-      </c>
-      <c r="R17" s="52">
-        <v>6.54E-2</v>
-      </c>
-      <c r="S17" s="52">
-        <v>9.74E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="51">
-        <v>39449</v>
-      </c>
-      <c r="B18" s="52">
-        <v>1.52E-2</v>
-      </c>
-      <c r="C18" s="52">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="D18" s="52">
-        <v>0.1032</v>
-      </c>
-      <c r="F18" s="51">
-        <v>39449</v>
-      </c>
-      <c r="G18" s="52">
-        <v>2.87E-2</v>
-      </c>
-      <c r="H18" s="52">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="I18" s="52">
-        <v>0.1032</v>
-      </c>
-      <c r="K18" s="51">
-        <v>39449</v>
-      </c>
-      <c r="L18" s="52">
-        <v>-5.3900000000000003E-2</v>
-      </c>
-      <c r="M18" s="52">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="N18" s="52">
-        <v>0.1032</v>
-      </c>
-      <c r="P18" s="51">
-        <v>39449</v>
-      </c>
-      <c r="Q18" s="52">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="R18" s="52">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="S18" s="52">
-        <v>0.1032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="51">
-        <v>39815</v>
-      </c>
-      <c r="B19" s="52">
-        <v>1.67E-2</v>
-      </c>
-      <c r="C19" s="52">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="D19" s="52">
-        <v>0.10680000000000001</v>
-      </c>
-      <c r="F19" s="51">
-        <v>39815</v>
-      </c>
-      <c r="G19" s="52">
-        <v>-3.8699999999999998E-2</v>
-      </c>
-      <c r="H19" s="52">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="I19" s="52">
-        <v>0.10680000000000001</v>
-      </c>
-      <c r="K19" s="51">
-        <v>39815</v>
-      </c>
-      <c r="L19" s="52">
-        <v>-2.12E-2</v>
-      </c>
-      <c r="M19" s="52">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="N19" s="52">
-        <v>0.10680000000000001</v>
-      </c>
-      <c r="P19" s="51">
-        <v>39815</v>
-      </c>
-      <c r="Q19" s="52"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="51">
-        <v>40182</v>
-      </c>
-      <c r="B20" s="52">
-        <v>1.77E-2</v>
-      </c>
-      <c r="C20" s="52">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="D20" s="52">
-        <v>0.1028</v>
-      </c>
-      <c r="F20" s="51">
-        <v>40182</v>
-      </c>
-      <c r="G20" s="52">
-        <v>-8.72E-2</v>
-      </c>
-      <c r="H20" s="52">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="I20" s="52">
-        <v>0.1028</v>
-      </c>
-      <c r="K20" s="51">
-        <v>40182</v>
-      </c>
-      <c r="L20" s="52">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="M20" s="52">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="N20" s="52">
-        <v>0.1028</v>
-      </c>
-      <c r="P20" s="51">
-        <v>40182</v>
-      </c>
-      <c r="Q20" s="52"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="51">
-        <v>40546</v>
-      </c>
-      <c r="B21" s="52">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="C21" s="52">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="D21" s="52">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F21" s="51">
-        <v>40546</v>
-      </c>
-      <c r="G21" s="52">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="H21" s="52">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="I21" s="52">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="K21" s="51">
-        <v>40546</v>
-      </c>
-      <c r="L21" s="52">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="M21" s="52">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="N21" s="52">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="P21" s="51">
-        <v>40546</v>
-      </c>
-      <c r="Q21" s="52"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="51">
-        <v>40911</v>
-      </c>
-      <c r="B22" s="52">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="C22" s="52">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="D22" s="52">
-        <v>0.1022</v>
-      </c>
-      <c r="F22" s="51">
-        <v>40911</v>
-      </c>
-      <c r="G22" s="52">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="H22" s="52">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="I22" s="52">
-        <v>0.1022</v>
-      </c>
-      <c r="K22" s="51">
-        <v>40911</v>
-      </c>
-      <c r="L22" s="52">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="M22" s="52">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="N22" s="52">
-        <v>0.1022</v>
-      </c>
-      <c r="P22" s="51">
-        <v>40911</v>
-      </c>
-      <c r="Q22" s="52"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="51">
-        <v>41276</v>
-      </c>
-      <c r="B23" s="52">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="C23" s="52">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="D23" s="52">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="F23" s="51">
-        <v>41276</v>
-      </c>
-      <c r="G23" s="52">
-        <v>9.7900000000000001E-2</v>
-      </c>
-      <c r="H23" s="52">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="I23" s="52">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="K23" s="51">
-        <v>41276</v>
-      </c>
-      <c r="L23" s="52">
-        <v>6.2199999999999998E-2</v>
-      </c>
-      <c r="M23" s="52">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="N23" s="52">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="P23" s="51">
-        <v>41276</v>
-      </c>
-      <c r="Q23" s="52"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="51">
+      <c r="M24" s="30">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="N24" s="30">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="P24" s="29">
         <v>41641</v>
       </c>
-      <c r="B24" s="52">
-        <v>1.43E-2</v>
-      </c>
-      <c r="C24" s="52">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D24" s="52">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="F24" s="51">
+      <c r="Q24" s="30"/>
+      <c r="U24" s="29">
         <v>41641</v>
       </c>
-      <c r="G24" s="52">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="H24" s="52">
-        <v>6.3E-2</v>
-      </c>
-      <c r="I24" s="52">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="K24" s="51">
-        <v>41641</v>
-      </c>
-      <c r="L24" s="52"/>
-      <c r="P24" s="51">
-        <v>41641</v>
-      </c>
-      <c r="Q24" s="52"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="51">
+      <c r="V24" s="30"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="29">
         <v>42006</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="30">
         <v>-1.4E-2</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="30">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="30">
         <v>0.1066</v>
       </c>
-      <c r="F25" s="51">
+      <c r="E25" s="30"/>
+      <c r="F25" s="29">
         <v>42006</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="30">
+        <v>1.17E-2</v>
+      </c>
+      <c r="H25" s="30">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I25" s="30">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="K25" s="29">
+        <v>42006</v>
+      </c>
+      <c r="L25" s="30">
         <v>4.2299999999999997E-2</v>
       </c>
-      <c r="H25" s="52">
-        <v>6.6799999999999998E-2</v>
-      </c>
-      <c r="I25" s="52">
-        <v>0.1066</v>
-      </c>
-      <c r="K25" s="51">
+      <c r="M25" s="30">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="N25" s="30">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P25" s="29">
         <v>42006</v>
       </c>
-      <c r="L25" s="52"/>
-      <c r="P25" s="51">
+      <c r="Q25" s="30"/>
+      <c r="U25" s="29">
         <v>42006</v>
       </c>
-      <c r="Q25" s="52"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="51">
+      <c r="V25" s="30"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="29">
         <v>42373</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="30">
         <v>-1.11E-2</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="30">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="30">
         <v>0.123</v>
       </c>
-      <c r="F26" s="51">
+      <c r="E26" s="30"/>
+      <c r="F26" s="29">
         <v>42373</v>
       </c>
-      <c r="K26" s="51">
+      <c r="G26" s="30">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="H26" s="30">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="I26" s="30">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="K26" s="29">
         <v>42373</v>
       </c>
-      <c r="P26" s="51">
+      <c r="P26" s="29">
         <v>42373</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="51">
+      <c r="U26" s="29">
+        <v>42373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="29">
         <v>42738</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="30">
         <v>-5.5100000000000003E-2</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="30">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="30">
         <v>0.1187</v>
       </c>
-      <c r="F27" s="51">
+      <c r="E27" s="30"/>
+      <c r="F27" s="29">
         <v>42738</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="29">
         <v>42738</v>
       </c>
-      <c r="P27" s="51">
+      <c r="P27" s="29">
         <v>42738</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="D28" s="52"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="D29" s="52"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="D30" s="52"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="D31" s="52"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="D32" s="52"/>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="52"/>
+      <c r="U27" s="29">
+        <v>42738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>